--- a/data/hotels_by_city/Denver/Denver_shard_133.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_133.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="562">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d4885715-Reviews-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Holiday-Inn-Express-Hotel-Suites-Denver-East-Peoria-Street.h6432125.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1586 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r583647072-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>4885715</t>
+  </si>
+  <si>
+    <t>583647072</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Over night stay</t>
+  </si>
+  <si>
+    <t>This place was great. Rooms are nice. Breakfast was the best “free” one I have had at a hotel.Affordable but lacked nothing for an enjoyable stay.Well now this ap will not accept a review with less that 200 characters, so this is my attempt at adding enough characters to meet the requirement. I have lost count again and I really do not want to recount so I will just keep typing...just keep typing, just keep typing... oh! The end!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>calebous, Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>This place was great. Rooms are nice. Breakfast was the best “free” one I have had at a hotel.Affordable but lacked nothing for an enjoyable stay.Well now this ap will not accept a review with less that 200 characters, so this is my attempt at adding enough characters to meet the requirement. I have lost count again and I really do not want to recount so I will just keep typing...just keep typing, just keep typing... oh! The end!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r566127859-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566127859</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Great one night stay</t>
+  </si>
+  <si>
+    <t>Only stayed one night at this HIE property on our trip West, but would definitely recommend and will stay again when we are in the area.  Hotel was clean, fresh and well-maintained....room was quite &amp; comfortable and lobby and dining areas were welcoming and inviting. Stay was great from check-in to check-out.  Staff was friendly, courteous, and professional....received exceptional assistance from Sandy &amp; Donna.Stay here...you won't be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Caleb b, Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Only stayed one night at this HIE property on our trip West, but would definitely recommend and will stay again when we are in the area.  Hotel was clean, fresh and well-maintained....room was quite &amp; comfortable and lobby and dining areas were welcoming and inviting. Stay was great from check-in to check-out.  Staff was friendly, courteous, and professional....received exceptional assistance from Sandy &amp; Donna.Stay here...you won't be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r565051146-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>565051146</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Convenient location, friendly staff and clean!</t>
+  </si>
+  <si>
+    <t>We stayed at this Holiday Inn Express for one night.  Overall, we were very happy with it.  The front desk staff were very friendly and helpful.  Our King Executive Room was very spacious and clean.  Nice bathroom - loved the shower which I never say.  There was a very friendly lady serving breakfast that started our day off right.  Breakfast was good.  There were only two things that bothered me a bit:  I am a very light sleeper and I could hear the hum of I-70 all night long.  There were also loud cars racing by at night that kept me up.  Maybe ask for a room on the back of the hotel.  Also - there was a very sketchy car full of people smoking pot in the parking lot.  It was about 10pm and I think this is legal in Colorado but the area all together wasn't the best.  I definitely wouldn't send a kid down to the car at night to get something - keep them close.  But - other than that - it was a fine hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Caleb b, Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this Holiday Inn Express for one night.  Overall, we were very happy with it.  The front desk staff were very friendly and helpful.  Our King Executive Room was very spacious and clean.  Nice bathroom - loved the shower which I never say.  There was a very friendly lady serving breakfast that started our day off right.  Breakfast was good.  There were only two things that bothered me a bit:  I am a very light sleeper and I could hear the hum of I-70 all night long.  There were also loud cars racing by at night that kept me up.  Maybe ask for a room on the back of the hotel.  Also - there was a very sketchy car full of people smoking pot in the parking lot.  It was about 10pm and I think this is legal in Colorado but the area all together wasn't the best.  I definitely wouldn't send a kid down to the car at night to get something - keep them close.  But - other than that - it was a fine hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r559788200-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>559788200</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Great hotel. I will definitely stay here again</t>
+  </si>
+  <si>
+    <t>Very clean hotel. Comfortable room and bed. Great staff interactions. Easy access from I-70. Easy walking distance to a couple of fast food restaurants. Typical free Holiday Inn breakfast bar. Good view of Downtown Denver and the Rockies beyond from some of the southwest facing rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Caleb b, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Very clean hotel. Comfortable room and bed. Great staff interactions. Easy access from I-70. Easy walking distance to a couple of fast food restaurants. Typical free Holiday Inn breakfast bar. Good view of Downtown Denver and the Rockies beyond from some of the southwest facing rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r546989395-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546989395</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Best breakfast service at a hotel</t>
+  </si>
+  <si>
+    <t>My team had the opportunity to meet Sandy this morning in the breakfast area and she was awesome!  Very attentive to keeping things fresh while also walking the room to make sure everyone had what they needed. Make sure you say hi to Sandy in the morning when you stay here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Caleb b, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>My team had the opportunity to meet Sandy this morning in the breakfast area and she was awesome!  Very attentive to keeping things fresh while also walking the room to make sure everyone had what they needed. Make sure you say hi to Sandy in the morning when you stay here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r546857319-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546857319</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>On par, if not better than the norm for Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>Provided exactly what you need.Clean bed, fresh linen, carpet well maintained, bathroom was spotless. Check in was a breeze, staff seemed genuinely interested in being there. The onsite gym had everything you need for weights and cardio.Keep up the great work!MoreShow less</t>
+  </si>
+  <si>
+    <t>Provided exactly what you need.Clean bed, fresh linen, carpet well maintained, bathroom was spotless. Check in was a breeze, staff seemed genuinely interested in being there. The onsite gym had everything you need for weights and cardio.Keep up the great work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r501079734-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>501079734</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Dirty Room</t>
+  </si>
+  <si>
+    <t>After notifying the hotel that my flight was delayed and I'd be checking in very late, I arrived at this Holiday Inn Express past midnight. No one was at the counter, so I had to ring the bell and wait for a bit - no biggie. The front desk attendant Edgar stumbled out from some room in the back and proceeded to check me extremely slowly. Finally, after receiving my room keys, I went up to my room. Everything was fine until I checked the bathroom. Someone had left me a "present" in the toilet. I called down and received Edgar who was tired and who rudely told me:1.I couldn't switch rooms due to availability2. Someone had cleaned my room already3. Essentially this was my fault for checking in so lateI understand that this hotel is on the budget side, but all I'm asking for is a friendly reception and a clean room. It failed on both counts. I would save your money and stay at any of the other surrounding hotels that can meet the bare minimum a weary traveler requires.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>After notifying the hotel that my flight was delayed and I'd be checking in very late, I arrived at this Holiday Inn Express past midnight. No one was at the counter, so I had to ring the bell and wait for a bit - no biggie. The front desk attendant Edgar stumbled out from some room in the back and proceeded to check me extremely slowly. Finally, after receiving my room keys, I went up to my room. Everything was fine until I checked the bathroom. Someone had left me a "present" in the toilet. I called down and received Edgar who was tired and who rudely told me:1.I couldn't switch rooms due to availability2. Someone had cleaned my room already3. Essentially this was my fault for checking in so lateI understand that this hotel is on the budget side, but all I'm asking for is a friendly reception and a clean room. It failed on both counts. I would save your money and stay at any of the other surrounding hotels that can meet the bare minimum a weary traveler requires.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r498210198-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>498210198</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Great Family Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here during vacation with a very large group. The hotel staff were very friendly and happy to help with anything we needed. The swimming pool was indoors and a nice size. The hotel was clean and smelled good the whole time (I mean this, they had to have hidden scentsy warmers everywhere...it really smelled good ). We also enjoyed the fact that we could grab lunch or supper at the fast food restaurants nearby!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here during vacation with a very large group. The hotel staff were very friendly and happy to help with anything we needed. The swimming pool was indoors and a nice size. The hotel was clean and smelled good the whole time (I mean this, they had to have hidden scentsy warmers everywhere...it really smelled good ). We also enjoyed the fact that we could grab lunch or supper at the fast food restaurants nearby!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r498078085-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>498078085</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Relatively new hotel</t>
+  </si>
+  <si>
+    <t>We spent one night and we were pleasantly suprised. The hotel and rooms were very clean. The beds were very comfortable. The bath was an improvement over most hotels with a tub shower. It had a large safety bar on the wall about waist high and the length of the tub. If you can'take have a stall shower like many of the  newer hotels have this would be the next best thing. We senior citizens are more conscious  about  falling in a tub shower.  The walls  are things and you can easily hear persons in the hall adjoining  rooms and people walking in the room  above.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent one night and we were pleasantly suprised. The hotel and rooms were very clean. The beds were very comfortable. The bath was an improvement over most hotels with a tub shower. It had a large safety bar on the wall about waist high and the length of the tub. If you can'take have a stall shower like many of the  newer hotels have this would be the next best thing. We senior citizens are more conscious  about  falling in a tub shower.  The walls  are things and you can easily hear persons in the hall adjoining  rooms and people walking in the room  above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r493983121-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>493983121</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Great 4 what we needed!</t>
+  </si>
+  <si>
+    <t>My wife and i where up there on a hospital visit for our son. The hotel was very close to the hospital (U.C. hospital). We were there for 5 days.  Two people i need to mention are sandy the breakfast attendant and donna at the front desk. They were the most proffessional and caring people we have ever met. They had our best intrest at all times. Thank you for everything and if we have the opportunity to stay there again we will.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>My wife and i where up there on a hospital visit for our son. The hotel was very close to the hospital (U.C. hospital). We were there for 5 days.  Two people i need to mention are sandy the breakfast attendant and donna at the front desk. They were the most proffessional and caring people we have ever met. They had our best intrest at all times. Thank you for everything and if we have the opportunity to stay there again we will.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r483595143-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>483595143</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Excessive Noise</t>
+  </si>
+  <si>
+    <t>In town on business and have been woke up at 2:30AM by excessive loud guest. Informed the front desk and after an hour later the issue has not come to a resolution. I normally try to stay at a Holiday Inn Express when I travel for they have great a commendations and staff that address issues if one arises. I was suppose to extend my stay here in Denver for another 5 days, but it looks like I will be checking out and moving to a different Hotel. I will still be staying at Holiday Inn Express when traveling, I will never stay at the current one again that is located at Denver East - Peoria StreetMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>In town on business and have been woke up at 2:30AM by excessive loud guest. Informed the front desk and after an hour later the issue has not come to a resolution. I normally try to stay at a Holiday Inn Express when I travel for they have great a commendations and staff that address issues if one arises. I was suppose to extend my stay here in Denver for another 5 days, but it looks like I will be checking out and moving to a different Hotel. I will still be staying at Holiday Inn Express when traveling, I will never stay at the current one again that is located at Denver East - Peoria StreetMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r467630282-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>467630282</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Good Property, If You Can Find the Entrance</t>
+  </si>
+  <si>
+    <t>Despite the fact this hotel has the worst development layout I've ever seen, the property is new, clean, and convenient to the Denver Airport.  The included buffet breakfast was well stocked, and the rooms were well appointed and clean.  You'll find the entrance of the Holiday Inn Express by driving around to the back of the La Quinta Hotel next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Despite the fact this hotel has the worst development layout I've ever seen, the property is new, clean, and convenient to the Denver Airport.  The included buffet breakfast was well stocked, and the rooms were well appointed and clean.  You'll find the entrance of the Holiday Inn Express by driving around to the back of the La Quinta Hotel next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r450559410-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>450559410</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Staycation</t>
+  </si>
+  <si>
+    <t>This weekend was our 3rd visit to this hotel.  The rooms are clean, beds are comfy and we love the breakfast.  And it's close to Northfield for shopping and dining. The staff is always friendly and helpful.  Can't wait for our next visit to this location, it's relaxing and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>This weekend was our 3rd visit to this hotel.  The rooms are clean, beds are comfy and we love the breakfast.  And it's close to Northfield for shopping and dining. The staff is always friendly and helpful.  Can't wait for our next visit to this location, it's relaxing and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r449051575-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>449051575</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>quick stop in Denver</t>
+  </si>
+  <si>
+    <t>We pulled in to this Holiday Inn at about 2 in the morning and the woman at the desk was so nice and helpful.  Room was clean breakfast was great.  Great stop to get a nights rest on our family road trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>We pulled in to this Holiday Inn at about 2 in the morning and the woman at the desk was so nice and helpful.  Room was clean breakfast was great.  Great stop to get a nights rest on our family road trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r437742197-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>437742197</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Very average for a Holiday Inn and Suites</t>
+  </si>
+  <si>
+    <t>The hotel is nearly brand new, but it feels like it was just done in a hurry. There was not enough space geographically for the hotel to even be built really...the parking lot is small and inadequate, and the hotel seems to be crammed into a busy street corner with horrible access and barely enough room to maneuver a normal-sized vehicle, let alone a large truck or van. Inside, everything looks brand new and is very aesthetically pleasing, but again it just feels cramped. Walking into the room, the bathroom is immediately on your right or left and when the door is open, it blocks access to the rest of the room, so you have to close the bathroom door to go further. Our bathroom door however, would not stay closed on its own unless latched because the wall was build at a slight incline so the door would just creep open until it was open entirely, thus blocking access to leaving the room. It just felt like the building was built as quickly and cheaply as possible.The staff was extremely friendly and helpful though, and the continental breakfast was very good. Overall, I have had much worse hotel visits, but for the price and expectations of a Holiday Inn and Suites, this hotel was not quite up to par.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is nearly brand new, but it feels like it was just done in a hurry. There was not enough space geographically for the hotel to even be built really...the parking lot is small and inadequate, and the hotel seems to be crammed into a busy street corner with horrible access and barely enough room to maneuver a normal-sized vehicle, let alone a large truck or van. Inside, everything looks brand new and is very aesthetically pleasing, but again it just feels cramped. Walking into the room, the bathroom is immediately on your right or left and when the door is open, it blocks access to the rest of the room, so you have to close the bathroom door to go further. Our bathroom door however, would not stay closed on its own unless latched because the wall was build at a slight incline so the door would just creep open until it was open entirely, thus blocking access to leaving the room. It just felt like the building was built as quickly and cheaply as possible.The staff was extremely friendly and helpful though, and the continental breakfast was very good. Overall, I have had much worse hotel visits, but for the price and expectations of a Holiday Inn and Suites, this hotel was not quite up to par.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r428161080-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>428161080</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Stay with No Surprises</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights in mid October.We have a certain expectation of Holiday Inn Express properties and this met our expectations.  The double queen room was spacious and clean.  The buffet breakfast was the standard fare, which is to say acceptable without being anything special.Our only complaint was with the WiFi which was difficult to log onto for unknown reasons.  We had the front desk re-boot the sytsem, which seemed to help.Otherwise, if you like Holiday Inn Express properties you will not be disappointed with this one.One comment: we booked this through Hotel Tonight, a third-party booking service and when we arrived the clerk asked for our credit card for incidentals, a common request.  However when we reviewed our on-line credit card statement the next day, we found that the hotel had charged our hotel stay to our personal credit card, which was a mistake.  I pointed this out to the hotel front desk the following day and they corrected the mistake within 2 days.  This was acceptable, but you should check to make sure the same thing does not happen to you if you book through a third-party booking service.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights in mid October.We have a certain expectation of Holiday Inn Express properties and this met our expectations.  The double queen room was spacious and clean.  The buffet breakfast was the standard fare, which is to say acceptable without being anything special.Our only complaint was with the WiFi which was difficult to log onto for unknown reasons.  We had the front desk re-boot the sytsem, which seemed to help.Otherwise, if you like Holiday Inn Express properties you will not be disappointed with this one.One comment: we booked this through Hotel Tonight, a third-party booking service and when we arrived the clerk asked for our credit card for incidentals, a common request.  However when we reviewed our on-line credit card statement the next day, we found that the hotel had charged our hotel stay to our personal credit card, which was a mistake.  I pointed this out to the hotel front desk the following day and they corrected the mistake within 2 days.  This was acceptable, but you should check to make sure the same thing does not happen to you if you book through a third-party booking service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r427499007-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>427499007</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalie is Awesome </t>
+  </si>
+  <si>
+    <t>I checked in just a couple of hours ago after a long drive with kids and friends.  I was cranky and probably a little rude to Natalie but she was amazing.  The 3rd party site didn't send over our reservation and she handled the matter like a pro.  I was tried and frustrated but she handled the situation so well that I had to write this review before going to bed.  So far this hotel seems awesome.  It is clean and the staff (Natalie) is amazing.  We are happy.  I look forward to unwinding before we head to Mount Rushmore.  I wish all businesses had staff like Natalie.  She keep her cool and helped us to get checked in and was very kind to a cranky Tennessean and her friends.  Thanks Natalie.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>I checked in just a couple of hours ago after a long drive with kids and friends.  I was cranky and probably a little rude to Natalie but she was amazing.  The 3rd party site didn't send over our reservation and she handled the matter like a pro.  I was tried and frustrated but she handled the situation so well that I had to write this review before going to bed.  So far this hotel seems awesome.  It is clean and the staff (Natalie) is amazing.  We are happy.  I look forward to unwinding before we head to Mount Rushmore.  I wish all businesses had staff like Natalie.  She keep her cool and helped us to get checked in and was very kind to a cranky Tennessean and her friends.  Thanks Natalie.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r425474425-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>425474425</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Big and confy room, good breakfast!</t>
+  </si>
+  <si>
+    <t>I only can say that everything was good, the price cheap, room modern and spacious and nice decorated and the bathroom the perfect size. The only issue was on the shower, everytime I showered the water came out and flooded the bathroom. The staff were kind.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>I only can say that everything was good, the price cheap, room modern and spacious and nice decorated and the bathroom the perfect size. The only issue was on the shower, everytime I showered the water came out and flooded the bathroom. The staff were kind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r399410108-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>399410108</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>New, good location</t>
+  </si>
+  <si>
+    <t>I stayed at the fairly new Holiday Inn Express Hotel &amp; Suites Denver East in July. It is just across the street from a Mexican restaurant and another hotel (La Quinta). Price was a little higher than expected, althougth they gave me AAA discount and I didn't argue as it was late at night and it was hungry. The lobby was modern, inviting and nicely decorated, but lacked the free coffee or ice water found in many Holiday Inns I've stayed in. Check-in was a breeze as counter staff were friendly and efficient. Room was as expected for Holiday Inn Express, 4 pillows for the King Bed (bed was cofortable, I slept soundly), standard ammeities in bathroom. Air conditioner was powerful. There was a gym open 24 hours (but air conditioning shuts off at 9pm so air was stale in there afterward), and a pool (closes at 10pm). Standard hot breakfast was served - yogurt, cereal, oatmeal, and hot breakfast: scrambled eggs, sausages and biscuits (but no gavy).MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the fairly new Holiday Inn Express Hotel &amp; Suites Denver East in July. It is just across the street from a Mexican restaurant and another hotel (La Quinta). Price was a little higher than expected, althougth they gave me AAA discount and I didn't argue as it was late at night and it was hungry. The lobby was modern, inviting and nicely decorated, but lacked the free coffee or ice water found in many Holiday Inns I've stayed in. Check-in was a breeze as counter staff were friendly and efficient. Room was as expected for Holiday Inn Express, 4 pillows for the King Bed (bed was cofortable, I slept soundly), standard ammeities in bathroom. Air conditioner was powerful. There was a gym open 24 hours (but air conditioning shuts off at 9pm so air was stale in there afterward), and a pool (closes at 10pm). Standard hot breakfast was served - yogurt, cereal, oatmeal, and hot breakfast: scrambled eggs, sausages and biscuits (but no gavy).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r391800538-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>391800538</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>Very clean room, all the amenities; coffee/sugar/cream/keurig coffee maker, iron/ironing board, hair dryer, refrigerator, microwave, soaps/lotion/shampoo and cable. Room was nice and cool, regulated by the thermostat. Donna Washington, manager, also brought quality and value to my stay at the hotel. Donna was very professional, pleasant, and informative about the other hotel accommodations offered to the guest of the hotel; indoor pool, and breakfast. Great stay away from home! GJJMoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Very clean room, all the amenities; coffee/sugar/cream/keurig coffee maker, iron/ironing board, hair dryer, refrigerator, microwave, soaps/lotion/shampoo and cable. Room was nice and cool, regulated by the thermostat. Donna Washington, manager, also brought quality and value to my stay at the hotel. Donna was very professional, pleasant, and informative about the other hotel accommodations offered to the guest of the hotel; indoor pool, and breakfast. Great stay away from home! GJJMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r387447997-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>387447997</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel great customer service </t>
+  </si>
+  <si>
+    <t>The hotel is clean and seems relatively new. However, the best part of the hotel was the young woman (Sarah) who was AMAZING!! She was kind, efficient, and she went the extra mile every time we saw her. We are staying for a week and she makes our trip from home easier!! An outstanding employee and phenomenal customer service!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is clean and seems relatively new. However, the best part of the hotel was the young woman (Sarah) who was AMAZING!! She was kind, efficient, and she went the extra mile every time we saw her. We are staying for a week and she makes our trip from home easier!! An outstanding employee and phenomenal customer service!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r373913577-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>373913577</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Nice, pricey</t>
+  </si>
+  <si>
+    <t>Ultra-comfortable bed and pillows, nice decor,very clean, excellent maintenance. Quiet despite being near a major road and I-70. Pricey but if you want a place to stay with no worries, this is the place. I do not recommend the adjacent restaurant. Date of stay was 05/12/2016MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Ultra-comfortable bed and pillows, nice decor,very clean, excellent maintenance. Quiet despite being near a major road and I-70. Pricey but if you want a place to stay with no worries, this is the place. I do not recommend the adjacent restaurant. Date of stay was 05/12/2016More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r373843326-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>373843326</t>
+  </si>
+  <si>
+    <t>Good amenities, clean, and convenient</t>
+  </si>
+  <si>
+    <t>The hotel was a short interstate drive from the airport and was very close to Anschutz medical campus, Stapleton, and not a bad drive to the downtown area. The pool and hot tub were very nice to relax in. There's a fitness center, business center, and a big, free breakfast each morning. The entire hotel is tidy, smells nice, and is modern. The rooms are pretty quiet, the beds are nice, and they come with a refrigerator and microwave. There are places for food nearby- I strongly recommend Ajuua, which is only steps away. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was a short interstate drive from the airport and was very close to Anschutz medical campus, Stapleton, and not a bad drive to the downtown area. The pool and hot tub were very nice to relax in. There's a fitness center, business center, and a big, free breakfast each morning. The entire hotel is tidy, smells nice, and is modern. The rooms are pretty quiet, the beds are nice, and they come with a refrigerator and microwave. There are places for food nearby- I strongly recommend Ajuua, which is only steps away. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r369369678-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>369369678</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Just Not Quite Right</t>
+  </si>
+  <si>
+    <t>I wasn't impressed with my stay.  The staff wasn't all that friendly.  Breakfast was below standard from my extensive experience.  Stale biscuits on Monday and luke warm gravy all three days I was there.Of all the HIE's I stay in as a Spire Guest, I never have seen a tip jar in the breakfast room.  Never.  I was amazed considering my disappointment with the quality of breakfast.The room was okay, but nothing out of the ordinary for an HIE.  Average at best.I thought of checking out early from this average property, but stuck it out.  However, in the competitive world of hotels, I'll withhold a strong recommendation in lieu of saying this was an average experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>I wasn't impressed with my stay.  The staff wasn't all that friendly.  Breakfast was below standard from my extensive experience.  Stale biscuits on Monday and luke warm gravy all three days I was there.Of all the HIE's I stay in as a Spire Guest, I never have seen a tip jar in the breakfast room.  Never.  I was amazed considering my disappointment with the quality of breakfast.The room was okay, but nothing out of the ordinary for an HIE.  Average at best.I thought of checking out early from this average property, but stuck it out.  However, in the competitive world of hotels, I'll withhold a strong recommendation in lieu of saying this was an average experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r340679888-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>340679888</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Could have used a better night's rest</t>
+  </si>
+  <si>
+    <t>Friendly staff with a decent breakfast.  However, there was such a gap around my exterior door that you could hear every cough, conversation, and door close in the hall.  That didn't make for a good night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff with a decent breakfast.  However, there was such a gap around my exterior door that you could hear every cough, conversation, and door close in the hall.  That didn't make for a good night's sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r329437376-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>329437376</t>
+  </si>
+  <si>
+    <t>11/27/2015</t>
+  </si>
+  <si>
+    <t>Great location, affordable price, courteous staff</t>
+  </si>
+  <si>
+    <t>I was looking at the hotels around Denver while running short on funds. I booked 3 nights of stay thorough hotels.com and was having credit card issues. As a valued member of the IHG member, the management was nice enough to let my stay in the hotel without asking further questions. The rate was like $70, got recently built (less than 2 years ago), has indoor pool, free breakfast, and excellent view. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>I was looking at the hotels around Denver while running short on funds. I booked 3 nights of stay thorough hotels.com and was having credit card issues. As a valued member of the IHG member, the management was nice enough to let my stay in the hotel without asking further questions. The rate was like $70, got recently built (less than 2 years ago), has indoor pool, free breakfast, and excellent view. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r327514373-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>327514373</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Awesome, Clean, and Friendly Staff</t>
+  </si>
+  <si>
+    <t>We absolutely love staying at this location, It is awesome to be able to walk in and feel welcomed at this location Donna made us feel welcome,  She is great and friendly.  The rooms are very clean,  good breakfast hot &amp; Cold .  This  property gets two thumbs up!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>We absolutely love staying at this location, It is awesome to be able to walk in and feel welcomed at this location Donna made us feel welcome,  She is great and friendly.  The rooms are very clean,  good breakfast hot &amp; Cold .  This  property gets two thumbs up!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r323635613-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>323635613</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Nice Place, good location</t>
+  </si>
+  <si>
+    <t>I booked this hotel using IHG points, it is a bit pricy to pay for IMHO.  However, the room was nicely appointed, very clean and comfortable, top of the line for a HI Express.   Breakfast was fresh, hot and tasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>I booked this hotel using IHG points, it is a bit pricy to pay for IMHO.  However, the room was nicely appointed, very clean and comfortable, top of the line for a HI Express.   Breakfast was fresh, hot and tasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r322770515-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>322770515</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Great hotel, great rooms. Very clean, lobby bright and roomy. Staff very friendly and courteous especially evening manager Donna Washington. She was very knowledgeable of the area and helped with all my questions. I will be staying there again and highly recommend to othersMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Great hotel, great rooms. Very clean, lobby bright and roomy. Staff very friendly and courteous especially evening manager Donna Washington. She was very knowledgeable of the area and helped with all my questions. I will be staying there again and highly recommend to othersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r320616591-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>320616591</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Beautiful property, paper-thin walls</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised when I pulled up to this property, it appears to be new. But the noise level was really surprising. I could actually understand the conversation my neighbors were having and the the sound of the elevator was loud enough that it seemed like I was keeping in front of it. And a tip jar in the breakfast area??? That was weird.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised when I pulled up to this property, it appears to be new. But the noise level was really surprising. I could actually understand the conversation my neighbors were having and the the sound of the elevator was loud enough that it seemed like I was keeping in front of it. And a tip jar in the breakfast area??? That was weird.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r307953748-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>307953748</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>What I expect from HI Express</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on our second night in Denver. The location was convenient to an appointment that I had on the following day. The front desk person was very friendly, and the room was clean and what I expect. The hot tub was ok. The location of the hotel doesn't have a lot of food options within walking distance, although there is a Mexican food restaurant  in the same parking lot (see review). As far as the neighborhood, I was a little concerned, but I didn't have any problems. My stay was what I expected. I have stayed at several HI Express locations and this location is consistent with the brand. If I needed to stay in this area again, I might return to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on our second night in Denver. The location was convenient to an appointment that I had on the following day. The front desk person was very friendly, and the room was clean and what I expect. The hot tub was ok. The location of the hotel doesn't have a lot of food options within walking distance, although there is a Mexican food restaurant  in the same parking lot (see review). As far as the neighborhood, I was a little concerned, but I didn't have any problems. My stay was what I expected. I have stayed at several HI Express locations and this location is consistent with the brand. If I needed to stay in this area again, I might return to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r306957310-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>306957310</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Comfortable Bed </t>
+  </si>
+  <si>
+    <t>After driving for 20 hours, we were happy to find a comfortable bed in a clean room. We booked through trip advisor. Overall, the hotel was pretty nice. The staff was friendly and check-in efficient.  The bed was comfortable and the continental breakfast was adequate.  The shower pressure was lacking.             MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>After driving for 20 hours, we were happy to find a comfortable bed in a clean room. We booked through trip advisor. Overall, the hotel was pretty nice. The staff was friendly and check-in efficient.  The bed was comfortable and the continental breakfast was adequate.  The shower pressure was lacking.             More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r292448301-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>292448301</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Was really nice</t>
+  </si>
+  <si>
+    <t>I like the room. The hotel is nice and in a nice area. Good breakfast.very nice staff. Only thing is the fan in bathroom doesnt work. I told the staff they said it will be fixed by morning and they still haven't fixed it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2015</t>
+  </si>
+  <si>
+    <t>I like the room. The hotel is nice and in a nice area. Good breakfast.very nice staff. Only thing is the fan in bathroom doesnt work. I told the staff they said it will be fixed by morning and they still haven't fixed it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r281032398-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>281032398</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Beware Dynamic Pricing</t>
+  </si>
+  <si>
+    <t>This property is slightly below average from HIE ( I have stayed in maybe 10 different ones).  The room was OK, but the toilet was wobbly and the lighting dim.  Location is functional, but not an especially nice part of Denver (lots of light industrial) and near the airport (which is almost in Kansas).  There is a good Mexican restaurant next door.  But because there were a bunch of highway workers staying there, they jacked the price to over $220.00 for one person.  That is too much for an HIE.  I had already driven 500 miles that day so was not ready to shop around.  I know supply/demand pricing is part of the hotel game, but it was too much.  I felt like a 49er who was sold a shovel and a dozen eggs for $300.00.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2015</t>
+  </si>
+  <si>
+    <t>This property is slightly below average from HIE ( I have stayed in maybe 10 different ones).  The room was OK, but the toilet was wobbly and the lighting dim.  Location is functional, but not an especially nice part of Denver (lots of light industrial) and near the airport (which is almost in Kansas).  There is a good Mexican restaurant next door.  But because there were a bunch of highway workers staying there, they jacked the price to over $220.00 for one person.  That is too much for an HIE.  I had already driven 500 miles that day so was not ready to shop around.  I know supply/demand pricing is part of the hotel game, but it was too much.  I felt like a 49er who was sold a shovel and a dozen eggs for $300.00.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r280638013-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>280638013</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Service Caleb </t>
+  </si>
+  <si>
+    <t>We booked our room on the Trip advisor app as we always do. We booked it with La Quinta Inn. We got there to check in and we're told our reservation was canceled. We prepaid for the room with Trip Advisor as we always do. Norma was really rude and told us it wasn't her problem that our room was canceled! We told her the room was paid for in advance. She was no help so I asked to speak to a supervisor. That's when Caleb came in from the Hotel next door. He was very professional and put us in a room at Holiday Inn Express Suites. He comp us the room for our inconvenience. Thank you Caleb! I will definitely stay at other Holiday Inn Suites! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>We booked our room on the Trip advisor app as we always do. We booked it with La Quinta Inn. We got there to check in and we're told our reservation was canceled. We prepaid for the room with Trip Advisor as we always do. Norma was really rude and told us it wasn't her problem that our room was canceled! We told her the room was paid for in advance. She was no help so I asked to speak to a supervisor. That's when Caleb came in from the Hotel next door. He was very professional and put us in a room at Holiday Inn Express Suites. He comp us the room for our inconvenience. Thank you Caleb! I will definitely stay at other Holiday Inn Suites! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r279775548-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>279775548</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A++++++ </t>
+  </si>
+  <si>
+    <t>This hotel was a pleasant surprise. From the moment we walked in to check in we felt welcomed. Even though it was a line waiting to check in we never minded waiting our turn. Donna is one of the best  I have met on this 14 day road trip.  We loved everything about this IHG property. MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was a pleasant surprise. From the moment we walked in to check in we felt welcomed. Even though it was a line waiting to check in we never minded waiting our turn. Donna is one of the best  I have met on this 14 day road trip.  We loved everything about this IHG property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r271943510-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>271943510</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Great Service,  Nice Clean Rooms, Great Staff</t>
+  </si>
+  <si>
+    <t>Great place to stay, The front desk person Donna was very courteous and always had a  comforting smile . she is a genuine people person. Room was very clean , the moment you walk into the hotel there is a fresh and clean scent. This hotel is highly recommended in my book if you are staying in Denver, CoMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Great place to stay, The front desk person Donna was very courteous and always had a  comforting smile . she is a genuine people person. Room was very clean , the moment you walk into the hotel there is a fresh and clean scent. This hotel is highly recommended in my book if you are staying in Denver, CoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r270407156-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>270407156</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Decent and seviceable</t>
+  </si>
+  <si>
+    <t>I have no complaints about the hotel itself - rooms were clean and quiet, elevators worked well, beds were comfortable, bathroom was clean and everything worked, breakfast is your usual complimentary fare - but eating choices outside the hotel can be limited. After driving 400 miles through the mountains and arriving around 8pm on a saturday night I didn't feel like driving somewhere for dinner but all that was open nearby was a McDonald's and a sit-down Mexican restaurant called Ajuua. I checked with the desk clerk if there were any Asian restaurants nearby (my wife is Filipino). He said no but was willing to do a Google search. We opted for the Mexican place and had a good meal, but just something to be aware of when going with this location (there is also a large La Quinta right next door).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded May 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2015</t>
+  </si>
+  <si>
+    <t>I have no complaints about the hotel itself - rooms were clean and quiet, elevators worked well, beds were comfortable, bathroom was clean and everything worked, breakfast is your usual complimentary fare - but eating choices outside the hotel can be limited. After driving 400 miles through the mountains and arriving around 8pm on a saturday night I didn't feel like driving somewhere for dinner but all that was open nearby was a McDonald's and a sit-down Mexican restaurant called Ajuua. I checked with the desk clerk if there were any Asian restaurants nearby (my wife is Filipino). He said no but was willing to do a Google search. We opted for the Mexican place and had a good meal, but just something to be aware of when going with this location (there is also a large La Quinta right next door).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r266686226-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>266686226</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Acceptable Newer Hotel</t>
+  </si>
+  <si>
+    <t>The hotel appears to be newer and was very clean. There were a few problems: when we arrived the room smelled like laundry detergent, parts of the hotel at various times smelled like pot and the room was not soundproof. There were several signs posted throughout the hotel indicating that you could not smoke pot so I would assume its been an ongoing issue. We could hear everything through the walls, the toilet flush, the shower starting, the television and people's conversations in the nearby rooms. In the morning the housekeeping staff was extremely loud and it sounded like they hit our door with the vacuum.  One thing to note is that our room did not have a tub only a shower and it wasn't an accessible room. It was fine for us but I can see where some people may need a tub. The location was acceptable for us as we were visiting Dicks Sporting Goods Park and it was only a few minutes drive away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded April 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2015</t>
+  </si>
+  <si>
+    <t>The hotel appears to be newer and was very clean. There were a few problems: when we arrived the room smelled like laundry detergent, parts of the hotel at various times smelled like pot and the room was not soundproof. There were several signs posted throughout the hotel indicating that you could not smoke pot so I would assume its been an ongoing issue. We could hear everything through the walls, the toilet flush, the shower starting, the television and people's conversations in the nearby rooms. In the morning the housekeeping staff was extremely loud and it sounded like they hit our door with the vacuum.  One thing to note is that our room did not have a tub only a shower and it wasn't an accessible room. It was fine for us but I can see where some people may need a tub. The location was acceptable for us as we were visiting Dicks Sporting Goods Park and it was only a few minutes drive away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r257017330-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>257017330</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>I have been reading some of the other reveiws and there is a few of them I do not beleive. While I was staying at this Holiday Inn they seemed to treat me like a king. Upon my arrival the front desk staff was friendly and informative. When I got to my room I was pleastly surprized, it was vey large and extreamly clean. I ws able to get some work done without interuption. I could not beleive how comfortable the bed was. I slept like a rock! I don't even get that kind of sleep at home. I will be staying at this property when I'm in Denver from now on. Please thank your staff for making me feel at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>calebous, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>I have been reading some of the other reveiws and there is a few of them I do not beleive. While I was staying at this Holiday Inn they seemed to treat me like a king. Upon my arrival the front desk staff was friendly and informative. When I got to my room I was pleastly surprized, it was vey large and extreamly clean. I ws able to get some work done without interuption. I could not beleive how comfortable the bed was. I slept like a rock! I don't even get that kind of sleep at home. I will be staying at this property when I'm in Denver from now on. Please thank your staff for making me feel at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r256981130-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>256981130</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL &amp; STAFF</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel last Sunday night and I must say I was impressed the moment I walked in. I was greated by a gentleman named Anthony and have to say I got nothing but 5 star customer service from him. He took the time to recommend a few dining establishments close bye and make me familiar with the property and the great amenities it has to offer. The room was very spacious and CLEAN...I REPEAT CLEAN!!! I'm not in Denver often but I do plan to return to this hotel when I'm in town again. HIGHLY RECOMMEND THIS HOTEL!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel last Sunday night and I must say I was impressed the moment I walked in. I was greated by a gentleman named Anthony and have to say I got nothing but 5 star customer service from him. He took the time to recommend a few dining establishments close bye and make me familiar with the property and the great amenities it has to offer. The room was very spacious and CLEAN...I REPEAT CLEAN!!! I'm not in Denver often but I do plan to return to this hotel when I'm in town again. HIGHLY RECOMMEND THIS HOTEL!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r256901537-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>256901537</t>
+  </si>
+  <si>
+    <t>Decent for one night. Thin walls</t>
+  </si>
+  <si>
+    <t>We had to leave our ski lodge early because of snow coming in and we found this HI Express. It is very clean and very consistent with all other HI Express's. The desk clerk was very pleasant. We had to leave at 4am to catch our flight so we did not get to enjoy the breakfast, although she did offer to make us fresh coffee before we left.Our only complaint was that the hotel was obviously not crowded but they stuck us in a group of rooms that were occupied and we heard noise from across the hall and especially in the adjacent room. We could hear conversations between parents and children. So ask for a room that does not have neighbors and you should be fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to leave our ski lodge early because of snow coming in and we found this HI Express. It is very clean and very consistent with all other HI Express's. The desk clerk was very pleasant. We had to leave at 4am to catch our flight so we did not get to enjoy the breakfast, although she did offer to make us fresh coffee before we left.Our only complaint was that the hotel was obviously not crowded but they stuck us in a group of rooms that were occupied and we heard noise from across the hall and especially in the adjacent room. We could hear conversations between parents and children. So ask for a room that does not have neighbors and you should be fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r256019582-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>256019582</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>New Hotel, thin walls, not much too close by</t>
+  </si>
+  <si>
+    <t>I was traveling thru Colorado and the snow storm made me stay in Denver.  This H.I.E. was close and available at the last .  This is a brand new hotel, and decor and furnishing shows like its new.  The desk staff was good.  I paid $99/night as a last minute reservation on a Saturday night.  
+Now I have to mention the walls are very thin, thin enough that I could hear my neighbors hitting a bong,  I could hear the water bubbling, then coughing up a storm, till very late hours of the morning. I wish they were having sex as that would of only gone on for only 2 minutes...LOL  
+Bedding was comfortable, but the sheets and comforter were made up too short to cover up the shoulders of a grown man, no big deal as I just had to pull everything out from being tucked into the mattress.
+They have a complimentary b-fast buffet.  Now for me, I wish they didn't and just discounted the room by $4-5 dollars. But since its there I have to partake in it.  Coffee was hotel quality, the egg thing, is a manufactured product that almost looks like an omelet, The Biscuits  are good but the sausage gravy ruined it, the sausage links was the only thing that tasted ok. 
+Bottom line is everything in the breakfast is frozen manufactured, and a muffin from McD's would be better.  But I know value...I was traveling thru Colorado and the snow storm made me stay in Denver.  This H.I.E. was close and available at the last .  This is a brand new hotel, and decor and furnishing shows like its new.  The desk staff was good.  I paid $99/night as a last minute reservation on a Saturday night.  Now I have to mention the walls are very thin, thin enough that I could hear my neighbors hitting a bong,  I could hear the water bubbling, then coughing up a storm, till very late hours of the morning. I wish they were having sex as that would of only gone on for only 2 minutes...LOL  Bedding was comfortable, but the sheets and comforter were made up too short to cover up the shoulders of a grown man, no big deal as I just had to pull everything out from being tucked into the mattress.They have a complimentary b-fast buffet.  Now for me, I wish they didn't and just discounted the room by $4-5 dollars. But since its there I have to partake in it.  Coffee was hotel quality, the egg thing, is a manufactured product that almost looks like an omelet, The Biscuits  are good but the sausage gravy ruined it, the sausage links was the only thing that tasted ok. Bottom line is everything in the breakfast is frozen manufactured, and a muffin from McD's would be better.  But I know value travelers, will appreciate it as its free.MoreShow less</t>
+  </si>
+  <si>
+    <t>calebous, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>I was traveling thru Colorado and the snow storm made me stay in Denver.  This H.I.E. was close and available at the last .  This is a brand new hotel, and decor and furnishing shows like its new.  The desk staff was good.  I paid $99/night as a last minute reservation on a Saturday night.  
+Now I have to mention the walls are very thin, thin enough that I could hear my neighbors hitting a bong,  I could hear the water bubbling, then coughing up a storm, till very late hours of the morning. I wish they were having sex as that would of only gone on for only 2 minutes...LOL  
+Bedding was comfortable, but the sheets and comforter were made up too short to cover up the shoulders of a grown man, no big deal as I just had to pull everything out from being tucked into the mattress.
+They have a complimentary b-fast buffet.  Now for me, I wish they didn't and just discounted the room by $4-5 dollars. But since its there I have to partake in it.  Coffee was hotel quality, the egg thing, is a manufactured product that almost looks like an omelet, The Biscuits  are good but the sausage gravy ruined it, the sausage links was the only thing that tasted ok. 
+Bottom line is everything in the breakfast is frozen manufactured, and a muffin from McD's would be better.  But I know value...I was traveling thru Colorado and the snow storm made me stay in Denver.  This H.I.E. was close and available at the last .  This is a brand new hotel, and decor and furnishing shows like its new.  The desk staff was good.  I paid $99/night as a last minute reservation on a Saturday night.  Now I have to mention the walls are very thin, thin enough that I could hear my neighbors hitting a bong,  I could hear the water bubbling, then coughing up a storm, till very late hours of the morning. I wish they were having sex as that would of only gone on for only 2 minutes...LOL  Bedding was comfortable, but the sheets and comforter were made up too short to cover up the shoulders of a grown man, no big deal as I just had to pull everything out from being tucked into the mattress.They have a complimentary b-fast buffet.  Now for me, I wish they didn't and just discounted the room by $4-5 dollars. But since its there I have to partake in it.  Coffee was hotel quality, the egg thing, is a manufactured product that almost looks like an omelet, The Biscuits  are good but the sausage gravy ruined it, the sausage links was the only thing that tasted ok. Bottom line is everything in the breakfast is frozen manufactured, and a muffin from McD's would be better.  But I know value travelers, will appreciate it as its free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r253618120-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>253618120</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Average Good</t>
+  </si>
+  <si>
+    <t>Was in town for 3 nights and rather than stay at the questionable hotel across the street where my conference was being held I decided to stay with a name I could trust.  This hotel is a newer and very clean.
+That being said I called and asked for a referral for a taxi or limo service and I was given one phone number and was told to give the name of the front desk person who referred me.  I called the "Limo" service and they said "Huh?  Oh yeah we're a limo service".  I said thanks anyway and just got a cab.
+The TV volume is pre set.  I get that as I too have been annoyed by loud neighbors, but the volume was so low I had to turn of the heater to hear the T.V.
+Breakfast selection consisted of your average full continental breakfast but the bread, muffin and beagle selection consisted of week old items. I couldn't even cut thru the stale English Muffin.
+I stayed on the Pot Head floor.  It reeked of Marijuana (I get it I'm from WA state) but come on hotel management do something?  at least lower the cost of snacks in your little store for those who are getting an unintentional contact high. Scary neighbors were in and out of their room yelling and just being straight ghetto. I would've called the front desk but I know what happens to...Was in town for 3 nights and rather than stay at the questionable hotel across the street where my conference was being held I decided to stay with a name I could trust.  This hotel is a newer and very clean.That being said I called and asked for a referral for a taxi or limo service and I was given one phone number and was told to give the name of the front desk person who referred me.  I called the "Limo" service and they said "Huh?  Oh yeah we're a limo service".  I said thanks anyway and just got a cab.The TV volume is pre set.  I get that as I too have been annoyed by loud neighbors, but the volume was so low I had to turn of the heater to hear the T.V.Breakfast selection consisted of your average full continental breakfast but the bread, muffin and beagle selection consisted of week old items. I couldn't even cut thru the stale English Muffin.I stayed on the Pot Head floor.  It reeked of Marijuana (I get it I'm from WA state) but come on hotel management do something?  at least lower the cost of snacks in your little store for those who are getting an unintentional contact high. Scary neighbors were in and out of their room yelling and just being straight ghetto. I would've called the front desk but I know what happens to snitches (they end up in ditches) Just kidding. But it was seriously that bad.DO NOT eat at the Mexican Restaurant unless you never want to eat Mexican Food again.  Timbers Pub had a whopping selection of 3 items but the Steak WAS awesome.  There really wasn't anywhere to eat in the area other than McDonalds and Quiznos.Bed was hard but some may like that, I had a great view and by the end of my stay I had made friends with the front desk folks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Was in town for 3 nights and rather than stay at the questionable hotel across the street where my conference was being held I decided to stay with a name I could trust.  This hotel is a newer and very clean.
+That being said I called and asked for a referral for a taxi or limo service and I was given one phone number and was told to give the name of the front desk person who referred me.  I called the "Limo" service and they said "Huh?  Oh yeah we're a limo service".  I said thanks anyway and just got a cab.
+The TV volume is pre set.  I get that as I too have been annoyed by loud neighbors, but the volume was so low I had to turn of the heater to hear the T.V.
+Breakfast selection consisted of your average full continental breakfast but the bread, muffin and beagle selection consisted of week old items. I couldn't even cut thru the stale English Muffin.
+I stayed on the Pot Head floor.  It reeked of Marijuana (I get it I'm from WA state) but come on hotel management do something?  at least lower the cost of snacks in your little store for those who are getting an unintentional contact high. Scary neighbors were in and out of their room yelling and just being straight ghetto. I would've called the front desk but I know what happens to...Was in town for 3 nights and rather than stay at the questionable hotel across the street where my conference was being held I decided to stay with a name I could trust.  This hotel is a newer and very clean.That being said I called and asked for a referral for a taxi or limo service and I was given one phone number and was told to give the name of the front desk person who referred me.  I called the "Limo" service and they said "Huh?  Oh yeah we're a limo service".  I said thanks anyway and just got a cab.The TV volume is pre set.  I get that as I too have been annoyed by loud neighbors, but the volume was so low I had to turn of the heater to hear the T.V.Breakfast selection consisted of your average full continental breakfast but the bread, muffin and beagle selection consisted of week old items. I couldn't even cut thru the stale English Muffin.I stayed on the Pot Head floor.  It reeked of Marijuana (I get it I'm from WA state) but come on hotel management do something?  at least lower the cost of snacks in your little store for those who are getting an unintentional contact high. Scary neighbors were in and out of their room yelling and just being straight ghetto. I would've called the front desk but I know what happens to snitches (they end up in ditches) Just kidding. But it was seriously that bad.DO NOT eat at the Mexican Restaurant unless you never want to eat Mexican Food again.  Timbers Pub had a whopping selection of 3 items but the Steak WAS awesome.  There really wasn't anywhere to eat in the area other than McDonalds and Quiznos.Bed was hard but some may like that, I had a great view and by the end of my stay I had made friends with the front desk folks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r253598281-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>253598281</t>
+  </si>
+  <si>
+    <t>airport hotel</t>
+  </si>
+  <si>
+    <t>good quality airport hotel convenient to rental car return -  adequate restaurant on site -  booked thru hotwire - friendly staff - would return. hotel appears to be new or recently remodeled. many other hotels in immediate areaMoreShow less</t>
+  </si>
+  <si>
+    <t>good quality airport hotel convenient to rental car return -  adequate restaurant on site -  booked thru hotwire - friendly staff - would return. hotel appears to be new or recently remodeled. many other hotels in immediate areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r240000738-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>240000738</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>New and Clean!</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is new and was very clean, which I was very happy about.  The beds were very comfortable.  I loved the pillows. The parking spaces are a little tight since there is a La Quinta right beside it (they were full and cost less).  There is a clean 7-11 that you can walk to for snacks across the street.  We were there for a busy early Saturday morning breakfast and so the options were running pretty low.  We enjoyed our stay because it was clean, and will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is new and was very clean, which I was very happy about.  The beds were very comfortable.  I loved the pillows. The parking spaces are a little tight since there is a La Quinta right beside it (they were full and cost less).  There is a clean 7-11 that you can walk to for snacks across the street.  We were there for a busy early Saturday morning breakfast and so the options were running pretty low.  We enjoyed our stay because it was clean, and will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r239553947-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>239553947</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>15-20 minutes from downtown Denver.  New hotel only 1-2 years old and you can tell (everything looks new).  Free breakfast.  Pool and hot tub.  15-20 minutes to Denver museums, zoo, aquarium, and amusement park.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>15-20 minutes from downtown Denver.  New hotel only 1-2 years old and you can tell (everything looks new).  Free breakfast.  Pool and hot tub.  15-20 minutes to Denver museums, zoo, aquarium, and amusement park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r239386340-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>239386340</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel and Staff</t>
+  </si>
+  <si>
+    <t>This hotel, and especially the people who work here are wonderful. Having actually had to live in this hotel for 5 weeks, the woman who works at the front desk, Donna, went above and beyond to make me feel like I was at home. I'd highly recommend staying here and would gladly come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>This hotel, and especially the people who work here are wonderful. Having actually had to live in this hotel for 5 weeks, the woman who works at the front desk, Donna, went above and beyond to make me feel like I was at home. I'd highly recommend staying here and would gladly come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r229757114-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>229757114</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>The building is fairly new and the staff is very friendly and helpful. The attendant working afternoon/evening remembers me every time I show up. Rooms are clean, comfortable, and well appointed (the bed is actually quite comfortable). For a continental breakfast I rate it a little above average. I've seen some reviews complaining about noise but I have not had that experience. I stay in a lot of hotels, noise level here seems pretty average to me - no hotel will ever be as quiet as being at home.
+The surrounding area is not a hotspot of social entertainment, so if you're looking for nightlife this isn't the place. There are a couple restaurants in the nearby area, but nothing to brag about. Stapleton is only 5 minutes west and there are many places to eat and drink. The Mexican restaurant across the parking lot looks like a dive but is surprisingly great (check out their yelp reviews), plus they offer a slight discount to Holiday Inn guests. This location is a minimum of 30 minutes to downtown, depending on the time of day you go, but expect it to take longer because traffic here is a living organism that is different from day to day. 
+The only complaint I have is the wireless internet connection. I've stayed here 3 times in the last 4 months and every time has been a truly horrible connection. When it's connected it's super...The building is fairly new and the staff is very friendly and helpful. The attendant working afternoon/evening remembers me every time I show up. Rooms are clean, comfortable, and well appointed (the bed is actually quite comfortable). For a continental breakfast I rate it a little above average. I've seen some reviews complaining about noise but I have not had that experience. I stay in a lot of hotels, noise level here seems pretty average to me - no hotel will ever be as quiet as being at home.The surrounding area is not a hotspot of social entertainment, so if you're looking for nightlife this isn't the place. There are a couple restaurants in the nearby area, but nothing to brag about. Stapleton is only 5 minutes west and there are many places to eat and drink. The Mexican restaurant across the parking lot looks like a dive but is surprisingly great (check out their yelp reviews), plus they offer a slight discount to Holiday Inn guests. This location is a minimum of 30 minutes to downtown, depending on the time of day you go, but expect it to take longer because traffic here is a living organism that is different from day to day. The only complaint I have is the wireless internet connection. I've stayed here 3 times in the last 4 months and every time has been a truly horrible connection. When it's connected it's super slow, and it loses connection VERY frequently. I've had to use my phone's hotspot for nearly all the work I've done here. I'm using it now to post this review, because the connection in my room vaporized....I have to do a lot of work from hotel rooms, so to be quite honest, I have to start considering not using this hotel again unless this issue gets better. No complaints whatsoever about the facility or staff, just the wireless connection - it's how I do my job so I can't survive with a poor one.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>The building is fairly new and the staff is very friendly and helpful. The attendant working afternoon/evening remembers me every time I show up. Rooms are clean, comfortable, and well appointed (the bed is actually quite comfortable). For a continental breakfast I rate it a little above average. I've seen some reviews complaining about noise but I have not had that experience. I stay in a lot of hotels, noise level here seems pretty average to me - no hotel will ever be as quiet as being at home.
+The surrounding area is not a hotspot of social entertainment, so if you're looking for nightlife this isn't the place. There are a couple restaurants in the nearby area, but nothing to brag about. Stapleton is only 5 minutes west and there are many places to eat and drink. The Mexican restaurant across the parking lot looks like a dive but is surprisingly great (check out their yelp reviews), plus they offer a slight discount to Holiday Inn guests. This location is a minimum of 30 minutes to downtown, depending on the time of day you go, but expect it to take longer because traffic here is a living organism that is different from day to day. 
+The only complaint I have is the wireless internet connection. I've stayed here 3 times in the last 4 months and every time has been a truly horrible connection. When it's connected it's super...The building is fairly new and the staff is very friendly and helpful. The attendant working afternoon/evening remembers me every time I show up. Rooms are clean, comfortable, and well appointed (the bed is actually quite comfortable). For a continental breakfast I rate it a little above average. I've seen some reviews complaining about noise but I have not had that experience. I stay in a lot of hotels, noise level here seems pretty average to me - no hotel will ever be as quiet as being at home.The surrounding area is not a hotspot of social entertainment, so if you're looking for nightlife this isn't the place. There are a couple restaurants in the nearby area, but nothing to brag about. Stapleton is only 5 minutes west and there are many places to eat and drink. The Mexican restaurant across the parking lot looks like a dive but is surprisingly great (check out their yelp reviews), plus they offer a slight discount to Holiday Inn guests. This location is a minimum of 30 minutes to downtown, depending on the time of day you go, but expect it to take longer because traffic here is a living organism that is different from day to day. The only complaint I have is the wireless internet connection. I've stayed here 3 times in the last 4 months and every time has been a truly horrible connection. When it's connected it's super slow, and it loses connection VERY frequently. I've had to use my phone's hotspot for nearly all the work I've done here. I'm using it now to post this review, because the connection in my room vaporized....I have to do a lot of work from hotel rooms, so to be quite honest, I have to start considering not using this hotel again unless this issue gets better. No complaints whatsoever about the facility or staff, just the wireless connection - it's how I do my job so I can't survive with a poor one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r223392267-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>223392267</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Skip this hotel</t>
+  </si>
+  <si>
+    <t>1.  There are no really decent restaurants within walking distance.  There is a mediocre Mexican place in the same parking lot; there is a so-so pub and grill across the street; I don't count McDonalds.2.  There are no bars that stay open past 10:00 PM nearby, unless you count the not-very-good restaurants mentioned above.3.  The front desk clerk lied when I asked for a room, telling me the only one they had left was a king suite at "$50" off because I was checking in at 9:30 PM on a Wednesday night.  I can tell the difference between a king-sized and queen-sized bed.  It wasn't a king anything.4.  Late checkout was 12:00 PM, which isn't very late.5.  The front desk staff was patronizing when I called and asked them why their wireless connection wasn't working.  "No Internet Access."  She said "it's working for me."  I manage a network for a large international company.  I know how to configure a wireless connection.  This one wouldn't prompt me for the authentication it required, even after rebooting and reconfiguring the wireless.6.  I had stuffy sinuses, with a headache, when I woke up because of whatever they used to wash the sheets.This is a not-that-nice, crappy Holiday Inn.  For $199 for a queen suite in a Denver location not even remotely close to downtown (this hotel is off I-70), it's a 100% rip off.Pass on this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>1.  There are no really decent restaurants within walking distance.  There is a mediocre Mexican place in the same parking lot; there is a so-so pub and grill across the street; I don't count McDonalds.2.  There are no bars that stay open past 10:00 PM nearby, unless you count the not-very-good restaurants mentioned above.3.  The front desk clerk lied when I asked for a room, telling me the only one they had left was a king suite at "$50" off because I was checking in at 9:30 PM on a Wednesday night.  I can tell the difference between a king-sized and queen-sized bed.  It wasn't a king anything.4.  Late checkout was 12:00 PM, which isn't very late.5.  The front desk staff was patronizing when I called and asked them why their wireless connection wasn't working.  "No Internet Access."  She said "it's working for me."  I manage a network for a large international company.  I know how to configure a wireless connection.  This one wouldn't prompt me for the authentication it required, even after rebooting and reconfiguring the wireless.6.  I had stuffy sinuses, with a headache, when I woke up because of whatever they used to wash the sheets.This is a not-that-nice, crappy Holiday Inn.  For $199 for a queen suite in a Denver location not even remotely close to downtown (this hotel is off I-70), it's a 100% rip off.Pass on this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r222789902-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>222789902</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Nice, But Some Problems</t>
+  </si>
+  <si>
+    <t>Stayed four nights during a softball tournament. Nice new building. ProsGreat HD tv with direct tv satellite and 5 HBO channelsGreat beds and pillowsNice acBeautiful bathroomsEasy access to I-70ConsThe reviewers that said the walls are thin were not kidding! We were awakened every morning at around 5:30 am with the sound slamming doors, water running, toilets flushing, general conversation and other things. Made me mad every morning.Not great shower pressure. And I hate the shower heads all HI Expresses use. Nothing comes out of the center!!!I would probably not return to this location do to all the slamming door!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Stayed four nights during a softball tournament. Nice new building. ProsGreat HD tv with direct tv satellite and 5 HBO channelsGreat beds and pillowsNice acBeautiful bathroomsEasy access to I-70ConsThe reviewers that said the walls are thin were not kidding! We were awakened every morning at around 5:30 am with the sound slamming doors, water running, toilets flushing, general conversation and other things. Made me mad every morning.Not great shower pressure. And I hate the shower heads all HI Expresses use. Nothing comes out of the center!!!I would probably not return to this location do to all the slamming door!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r217683233-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>217683233</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Quick stop</t>
+  </si>
+  <si>
+    <t>This hotel is pretty new and is very nice and clean. The staff was great and took care of any requests we had. Didn't get a chance to use the pool or work out area. There is a restaurant in the parking lot that has discounts for hotel guests.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is pretty new and is very nice and clean. The staff was great and took care of any requests we had. Didn't get a chance to use the pool or work out area. There is a restaurant in the parking lot that has discounts for hotel guests.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r213463058-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>213463058</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Just passing through, very friendly front desk when we checked in. Large clean rooms. Good location with restaurants nearby. Nice large breakfast area. Quite location. Only downfall is limited parking in the front and that is shared with the neighbor hotel. Didn't bother us much though. Great hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2014</t>
+  </si>
+  <si>
+    <t>Just passing through, very friendly front desk when we checked in. Large clean rooms. Good location with restaurants nearby. Nice large breakfast area. Quite location. Only downfall is limited parking in the front and that is shared with the neighbor hotel. Didn't bother us much though. Great hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r213344495-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>213344495</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel and Staff!!</t>
+  </si>
+  <si>
+    <t>Me and my fiance were walk in's with no reservations. The lady behind the desk was pleasant from the start and was sure to find me the best room for the price. We stayed for two nights in the kings suit. We were impressed how clean the room was and how comfortable the bed was, they even had firm pillows for me and soft pillows for her. The pool and hot tub was clean and fun. The free breakfast was not that bad considering it is free, but could use some improvement.Would recommend to friends!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Me and my fiance were walk in's with no reservations. The lady behind the desk was pleasant from the start and was sure to find me the best room for the price. We stayed for two nights in the kings suit. We were impressed how clean the room was and how comfortable the bed was, they even had firm pillows for me and soft pillows for her. The pool and hot tub was clean and fun. The free breakfast was not that bad considering it is free, but could use some improvement.Would recommend to friends!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r209822088-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>209822088</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Newer property with convenient highway access</t>
+  </si>
+  <si>
+    <t>Better on the inside than outside.  Share a surprisingly small front parking lot with a La Quinta hotel right next door (front desk staff says they co-own the properties).  Not all that attractive on the outside, but the inside is new and fresh looking.  I appreciated the complimentary upgrade to a large room with micro and fridge. The room had a large shower though no tub.  And oddly, no handle nor shelving to put soap, shampoo, or facecloth on.  Pool is somewhat small as is the hot tub.  Staff was pleasant.  Easy on/off access to I-70.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Better on the inside than outside.  Share a surprisingly small front parking lot with a La Quinta hotel right next door (front desk staff says they co-own the properties).  Not all that attractive on the outside, but the inside is new and fresh looking.  I appreciated the complimentary upgrade to a large room with micro and fridge. The room had a large shower though no tub.  And oddly, no handle nor shelving to put soap, shampoo, or facecloth on.  Pool is somewhat small as is the hot tub.  Staff was pleasant.  Easy on/off access to I-70.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r208212774-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>208212774</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Convenient, New and Nice</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here for 2 nights at the beginning of a 5 state 10 day road trip. The hotel is convenient to the airport and close to the I-70. We purposefully chose this hotel to avoid staying in the chaos of downtown. Rooms were nicely appointed, staff was friendly and breakfast was great. The only downside was trying to get the thermostat/fan to work properly in our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here for 2 nights at the beginning of a 5 state 10 day road trip. The hotel is convenient to the airport and close to the I-70. We purposefully chose this hotel to avoid staying in the chaos of downtown. Rooms were nicely appointed, staff was friendly and breakfast was great. The only downside was trying to get the thermostat/fan to work properly in our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r207765241-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>207765241</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Nice for Business</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel with easy access from the airport. Nice and friendly desk staff. Hotel was nice and clean and room was very comfortable with plenty of room. As always, the breakfast provided was great. The only concern with this hotel is the small parking area. If needing a hotel with easy access to the airport, consider this one, you will not be dissappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded May 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2014</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel with easy access from the airport. Nice and friendly desk staff. Hotel was nice and clean and room was very comfortable with plenty of room. As always, the breakfast provided was great. The only concern with this hotel is the small parking area. If needing a hotel with easy access to the airport, consider this one, you will not be dissappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r201591529-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>201591529</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>New and close to highway/airport but I won't be back</t>
+  </si>
+  <si>
+    <t>We stayed here overnight as we passed through Denver.  Whoever was in charge of quality control and punch lists for this build did not do a good job.   
+Pros:  Everything was new and nice to look at.  The staff were very nice and I saw the front desk clerk go out of his way to help a large family that was staying at the same time we were.  Good security camera coverage all around the building and parking lot was a nice security feature...assuming they work.
+Cons:  You could hear conversation and televsion noise from the other rooms.  I'm not talking about yelling or loud conversation or tv either, just normal conversation/tv level was heard clearly enough through the walls that you could hear parts of conversation...not just the sound of conversation but the actual words they were speaking.  The door closing speed/slamming was also excessive...it's common for it to be loud in hotels but this was extra loud!  The fan in the bathroom was either already broken or it never worked or they just forgot to hook it up to begin with.  The fridge looked new and it was plugged in but it also was not working.  Didn't even try the microwave, coffee pot, etc.
+On the nit picky side:  Some of the finishing work (especially in the bathroom) was so bad that if this had been my job I would have made the contractor come back and do...We stayed here overnight as we passed through Denver.  Whoever was in charge of quality control and punch lists for this build did not do a good job.   Pros:  Everything was new and nice to look at.  The staff were very nice and I saw the front desk clerk go out of his way to help a large family that was staying at the same time we were.  Good security camera coverage all around the building and parking lot was a nice security feature...assuming they work.Cons:  You could hear conversation and televsion noise from the other rooms.  I'm not talking about yelling or loud conversation or tv either, just normal conversation/tv level was heard clearly enough through the walls that you could hear parts of conversation...not just the sound of conversation but the actual words they were speaking.  The door closing speed/slamming was also excessive...it's common for it to be loud in hotels but this was extra loud!  The fan in the bathroom was either already broken or it never worked or they just forgot to hook it up to begin with.  The fridge looked new and it was plugged in but it also was not working.  Didn't even try the microwave, coffee pot, etc.On the nit picky side:  Some of the finishing work (especially in the bathroom) was so bad that if this had been my job I would have made the contractor come back and do it right.I don't really like to leave bad reviews, especially when the staff was so nice, but the point of this site is for people to know what they are getting, so this is my two cents.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded April 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here overnight as we passed through Denver.  Whoever was in charge of quality control and punch lists for this build did not do a good job.   
+Pros:  Everything was new and nice to look at.  The staff were very nice and I saw the front desk clerk go out of his way to help a large family that was staying at the same time we were.  Good security camera coverage all around the building and parking lot was a nice security feature...assuming they work.
+Cons:  You could hear conversation and televsion noise from the other rooms.  I'm not talking about yelling or loud conversation or tv either, just normal conversation/tv level was heard clearly enough through the walls that you could hear parts of conversation...not just the sound of conversation but the actual words they were speaking.  The door closing speed/slamming was also excessive...it's common for it to be loud in hotels but this was extra loud!  The fan in the bathroom was either already broken or it never worked or they just forgot to hook it up to begin with.  The fridge looked new and it was plugged in but it also was not working.  Didn't even try the microwave, coffee pot, etc.
+On the nit picky side:  Some of the finishing work (especially in the bathroom) was so bad that if this had been my job I would have made the contractor come back and do...We stayed here overnight as we passed through Denver.  Whoever was in charge of quality control and punch lists for this build did not do a good job.   Pros:  Everything was new and nice to look at.  The staff were very nice and I saw the front desk clerk go out of his way to help a large family that was staying at the same time we were.  Good security camera coverage all around the building and parking lot was a nice security feature...assuming they work.Cons:  You could hear conversation and televsion noise from the other rooms.  I'm not talking about yelling or loud conversation or tv either, just normal conversation/tv level was heard clearly enough through the walls that you could hear parts of conversation...not just the sound of conversation but the actual words they were speaking.  The door closing speed/slamming was also excessive...it's common for it to be loud in hotels but this was extra loud!  The fan in the bathroom was either already broken or it never worked or they just forgot to hook it up to begin with.  The fridge looked new and it was plugged in but it also was not working.  Didn't even try the microwave, coffee pot, etc.On the nit picky side:  Some of the finishing work (especially in the bathroom) was so bad that if this had been my job I would have made the contractor come back and do it right.I don't really like to leave bad reviews, especially when the staff was so nice, but the point of this site is for people to know what they are getting, so this is my two cents.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r200934245-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>200934245</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>no sound isolation</t>
+  </si>
+  <si>
+    <t>The walls block virtually no sound. The voice of a man next door speaking on the phone resonated in our room. The cleaning staff's music &amp; vacuum in adjacent rooms did the same.The staff was friendly, breakfast was fine, and parking was easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2014</t>
+  </si>
+  <si>
+    <t>The walls block virtually no sound. The voice of a man next door speaking on the phone resonated in our room. The cleaning staff's music &amp; vacuum in adjacent rooms did the same.The staff was friendly, breakfast was fine, and parking was easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r198562978-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>198562978</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>Great Hotel to stay if you wanna stay somewhere close to the airport.There are a  lot  of restaurants around for you to choose.The front desk staff was really helpful and amiable.  They always had a smile on their face.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Great Hotel to stay if you wanna stay somewhere close to the airport.There are a  lot  of restaurants around for you to choose.The front desk staff was really helpful and amiable.  They always had a smile on their face.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r196151959-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>196151959</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>A shiny new gem</t>
+  </si>
+  <si>
+    <t>We stayed overnight on the way to airport from skiing, and the location was really convenient.The hotel is brand new and spotless. The room was well decorated and well appointed with everything you need. Service was great, and we enjoyed breakfast before our flight.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2014</t>
+  </si>
+  <si>
+    <t>We stayed overnight on the way to airport from skiing, and the location was really convenient.The hotel is brand new and spotless. The room was well decorated and well appointed with everything you need. Service was great, and we enjoyed breakfast before our flight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r196145284-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>196145284</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to the airport. Our room was awesome. They upgraded us to a suite, which was great because we had all of our ski gear with us. We had an early flight and the breakfast attendant let us grab breakfast before breakfast was open. How sweet is that? Definitely a great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to the airport. Our room was awesome. They upgraded us to a suite, which was great because we had all of our ski gear with us. We had an early flight and the breakfast attendant let us grab breakfast before breakfast was open. How sweet is that? Definitely a great place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r196071752-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>196071752</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Convenient, clean, friendly, and good value</t>
+  </si>
+  <si>
+    <t>This was perfectly located between the airport and downtown Denver right off the freeway.  The hotel is new and clean and the front desk was friendly and helpful.  I would definitely stay again - BTW I also enjoyed the Mex restaurant next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This was perfectly located between the airport and downtown Denver right off the freeway.  The hotel is new and clean and the front desk was friendly and helpful.  I would definitely stay again - BTW I also enjoyed the Mex restaurant next door.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2121,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2153,4180 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>209</v>
+      </c>
+      <c r="X20" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>234</v>
+      </c>
+      <c r="X23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>247</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>257</v>
+      </c>
+      <c r="X26" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>265</v>
+      </c>
+      <c r="O27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>266</v>
+      </c>
+      <c r="X27" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" t="s">
+        <v>273</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>282</v>
+      </c>
+      <c r="X29" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>286</v>
+      </c>
+      <c r="J30" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L30" t="s">
+        <v>289</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>290</v>
+      </c>
+      <c r="O30" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>282</v>
+      </c>
+      <c r="X30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>293</v>
+      </c>
+      <c r="J31" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L31" t="s">
+        <v>296</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>297</v>
+      </c>
+      <c r="X31" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>301</v>
+      </c>
+      <c r="J32" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s">
+        <v>304</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>305</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>306</v>
+      </c>
+      <c r="X32" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>310</v>
+      </c>
+      <c r="J33" t="s">
+        <v>311</v>
+      </c>
+      <c r="K33" t="s">
+        <v>312</v>
+      </c>
+      <c r="L33" t="s">
+        <v>313</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>314</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>315</v>
+      </c>
+      <c r="X33" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>323</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>324</v>
+      </c>
+      <c r="X34" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>331</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>332</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>333</v>
+      </c>
+      <c r="X35" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>337</v>
+      </c>
+      <c r="J36" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s">
+        <v>340</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>332</v>
+      </c>
+      <c r="O36" t="s">
+        <v>341</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>342</v>
+      </c>
+      <c r="X36" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>346</v>
+      </c>
+      <c r="J37" t="s">
+        <v>347</v>
+      </c>
+      <c r="K37" t="s">
+        <v>348</v>
+      </c>
+      <c r="L37" t="s">
+        <v>349</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>350</v>
+      </c>
+      <c r="X37" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>354</v>
+      </c>
+      <c r="J38" t="s">
+        <v>355</v>
+      </c>
+      <c r="K38" t="s">
+        <v>356</v>
+      </c>
+      <c r="L38" t="s">
+        <v>357</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>358</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>359</v>
+      </c>
+      <c r="X38" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>362</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>363</v>
+      </c>
+      <c r="J39" t="s">
+        <v>364</v>
+      </c>
+      <c r="K39" t="s">
+        <v>365</v>
+      </c>
+      <c r="L39" t="s">
+        <v>366</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>367</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>368</v>
+      </c>
+      <c r="X39" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>371</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40" t="s">
+        <v>373</v>
+      </c>
+      <c r="K40" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" t="s">
+        <v>375</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>358</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>376</v>
+      </c>
+      <c r="X40" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" t="s">
+        <v>382</v>
+      </c>
+      <c r="L41" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>384</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>385</v>
+      </c>
+      <c r="X41" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>389</v>
+      </c>
+      <c r="J42" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" t="s">
+        <v>390</v>
+      </c>
+      <c r="L42" t="s">
+        <v>391</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>384</v>
+      </c>
+      <c r="O42" t="s">
+        <v>106</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>393</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>394</v>
+      </c>
+      <c r="J43" t="s">
+        <v>381</v>
+      </c>
+      <c r="K43" t="s">
+        <v>395</v>
+      </c>
+      <c r="L43" t="s">
+        <v>396</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>385</v>
+      </c>
+      <c r="X43" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>398</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>399</v>
+      </c>
+      <c r="J44" t="s">
+        <v>400</v>
+      </c>
+      <c r="K44" t="s">
+        <v>401</v>
+      </c>
+      <c r="L44" t="s">
+        <v>402</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>384</v>
+      </c>
+      <c r="O44" t="s">
+        <v>106</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>403</v>
+      </c>
+      <c r="X44" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>406</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>407</v>
+      </c>
+      <c r="J45" t="s">
+        <v>408</v>
+      </c>
+      <c r="K45" t="s">
+        <v>409</v>
+      </c>
+      <c r="L45" t="s">
+        <v>410</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>384</v>
+      </c>
+      <c r="O45" t="s">
+        <v>82</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>411</v>
+      </c>
+      <c r="X45" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>414</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>415</v>
+      </c>
+      <c r="J46" t="s">
+        <v>408</v>
+      </c>
+      <c r="K46" t="s">
+        <v>416</v>
+      </c>
+      <c r="L46" t="s">
+        <v>417</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>411</v>
+      </c>
+      <c r="X46" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>419</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>420</v>
+      </c>
+      <c r="J47" t="s">
+        <v>421</v>
+      </c>
+      <c r="K47" t="s">
+        <v>422</v>
+      </c>
+      <c r="L47" t="s">
+        <v>423</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>424</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>425</v>
+      </c>
+      <c r="X47" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>429</v>
+      </c>
+      <c r="J48" t="s">
+        <v>430</v>
+      </c>
+      <c r="K48" t="s">
+        <v>431</v>
+      </c>
+      <c r="L48" t="s">
+        <v>432</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>433</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>425</v>
+      </c>
+      <c r="X48" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" t="s">
+        <v>437</v>
+      </c>
+      <c r="K49" t="s">
+        <v>438</v>
+      </c>
+      <c r="L49" t="s">
+        <v>439</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>440</v>
+      </c>
+      <c r="O49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>425</v>
+      </c>
+      <c r="X49" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>443</v>
+      </c>
+      <c r="J50" t="s">
+        <v>444</v>
+      </c>
+      <c r="K50" t="s">
+        <v>445</v>
+      </c>
+      <c r="L50" t="s">
+        <v>446</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>447</v>
+      </c>
+      <c r="O50" t="s">
+        <v>82</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>448</v>
+      </c>
+      <c r="X50" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>451</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>452</v>
+      </c>
+      <c r="J51" t="s">
+        <v>453</v>
+      </c>
+      <c r="K51" t="s">
+        <v>454</v>
+      </c>
+      <c r="L51" t="s">
+        <v>455</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>433</v>
+      </c>
+      <c r="O51" t="s">
+        <v>341</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>456</v>
+      </c>
+      <c r="X51" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>459</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>460</v>
+      </c>
+      <c r="J52" t="s">
+        <v>461</v>
+      </c>
+      <c r="K52" t="s">
+        <v>462</v>
+      </c>
+      <c r="L52" t="s">
+        <v>463</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>433</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>464</v>
+      </c>
+      <c r="X52" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>467</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>468</v>
+      </c>
+      <c r="J53" t="s">
+        <v>469</v>
+      </c>
+      <c r="K53" t="s">
+        <v>470</v>
+      </c>
+      <c r="L53" t="s">
+        <v>471</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>472</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>473</v>
+      </c>
+      <c r="X53" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>476</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>477</v>
+      </c>
+      <c r="J54" t="s">
+        <v>478</v>
+      </c>
+      <c r="K54" t="s">
+        <v>479</v>
+      </c>
+      <c r="L54" t="s">
+        <v>480</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>481</v>
+      </c>
+      <c r="X54" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>484</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>485</v>
+      </c>
+      <c r="J55" t="s">
+        <v>486</v>
+      </c>
+      <c r="K55" t="s">
+        <v>487</v>
+      </c>
+      <c r="L55" t="s">
+        <v>488</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>489</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>481</v>
+      </c>
+      <c r="X55" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>491</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>492</v>
+      </c>
+      <c r="J56" t="s">
+        <v>493</v>
+      </c>
+      <c r="K56" t="s">
+        <v>494</v>
+      </c>
+      <c r="L56" t="s">
+        <v>495</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>489</v>
+      </c>
+      <c r="O56" t="s">
+        <v>106</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>496</v>
+      </c>
+      <c r="X56" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>499</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>500</v>
+      </c>
+      <c r="J57" t="s">
+        <v>501</v>
+      </c>
+      <c r="K57" t="s">
+        <v>502</v>
+      </c>
+      <c r="L57" t="s">
+        <v>503</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>504</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>505</v>
+      </c>
+      <c r="X57" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>508</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>509</v>
+      </c>
+      <c r="J58" t="s">
+        <v>510</v>
+      </c>
+      <c r="K58" t="s">
+        <v>511</v>
+      </c>
+      <c r="L58" t="s">
+        <v>512</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>504</v>
+      </c>
+      <c r="O58" t="s">
+        <v>82</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>513</v>
+      </c>
+      <c r="X58" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>516</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>517</v>
+      </c>
+      <c r="J59" t="s">
+        <v>518</v>
+      </c>
+      <c r="K59" t="s">
+        <v>519</v>
+      </c>
+      <c r="L59" t="s">
+        <v>520</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>521</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>522</v>
+      </c>
+      <c r="X59" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>525</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>526</v>
+      </c>
+      <c r="J60" t="s">
+        <v>527</v>
+      </c>
+      <c r="K60" t="s">
+        <v>528</v>
+      </c>
+      <c r="L60" t="s">
+        <v>529</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>521</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>530</v>
+      </c>
+      <c r="X60" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>533</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>534</v>
+      </c>
+      <c r="J61" t="s">
+        <v>535</v>
+      </c>
+      <c r="K61" t="s">
+        <v>536</v>
+      </c>
+      <c r="L61" t="s">
+        <v>537</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>538</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>539</v>
+      </c>
+      <c r="X61" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>542</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>543</v>
+      </c>
+      <c r="J62" t="s">
+        <v>544</v>
+      </c>
+      <c r="K62" t="s">
+        <v>545</v>
+      </c>
+      <c r="L62" t="s">
+        <v>546</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>538</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>547</v>
+      </c>
+      <c r="X62" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>550</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>551</v>
+      </c>
+      <c r="J63" t="s">
+        <v>544</v>
+      </c>
+      <c r="K63" t="s">
+        <v>552</v>
+      </c>
+      <c r="L63" t="s">
+        <v>553</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>538</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>547</v>
+      </c>
+      <c r="X63" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>555</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>556</v>
+      </c>
+      <c r="J64" t="s">
+        <v>557</v>
+      </c>
+      <c r="K64" t="s">
+        <v>558</v>
+      </c>
+      <c r="L64" t="s">
+        <v>559</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>560</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>547</v>
+      </c>
+      <c r="X64" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_133.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_133.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="882">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r607629662-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>4885715</t>
+  </si>
+  <si>
+    <t>607629662</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Nice suite type rooms</t>
+  </si>
+  <si>
+    <t>Location was perfect for us to visit Rocky Mountains, they have full breakfast with lots of option and also a computer room to work where we were able to print our passes.Rooms were great- nice and clean. One of our rooms was upgraded to suite that had a pull out sofa.Will definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>calebous, Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Location was perfect for us to visit Rocky Mountains, they have full breakfast with lots of option and also a computer room to work where we were able to print our passes.Rooms were great- nice and clean. One of our rooms was upgraded to suite that had a pull out sofa.Will definitely stay again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r583647072-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
-    <t>33388</t>
-  </si>
-  <si>
-    <t>4885715</t>
-  </si>
-  <si>
     <t>583647072</t>
   </si>
   <si>
@@ -177,9 +207,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>calebous, Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded May 30, 2018</t>
   </si>
   <si>
@@ -189,6 +216,57 @@
     <t>This place was great. Rooms are nice. Breakfast was the best “free” one I have had at a hotel.Affordable but lacked nothing for an enjoyable stay.Well now this ap will not accept a review with less that 200 characters, so this is my attempt at adding enough characters to meet the requirement. I have lost count again and I really do not want to recount so I will just keep typing...just keep typing, just keep typing... oh! The end!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r590777291-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>590777291</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Friendly breakfast manager</t>
+  </si>
+  <si>
+    <t>The hotel's breakfast manager greeted me with a smile and asked me if I had eaten it kindly. Especially the breakfast manager, her name was 'sanmy' which was very friendly and gave me a comfortable meal.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>calebous, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>The hotel's breakfast manager greeted me with a smile and asked me if I had eaten it kindly. Especially the breakfast manager, her name was 'sanmy' which was very friendly and gave me a comfortable meal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r582910929-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>582910929</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Can't fault it - great view too!</t>
+  </si>
+  <si>
+    <t>Stayed for one night whilst passing through. The receptionist was efficient and we were soon in the room. We were on the top floor that had a great view across to the mountains.The room was a standard King - it was clean and the bed was comfy. The shower was powerful too. The top floor position also gave us a quiet nights sleep.Parking was quite tight and there were not many spaces available when we arrived fairly late. It's near quite a few restuarants too.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stayed for one night whilst passing through. The receptionist was efficient and we were soon in the room. We were on the top floor that had a great view across to the mountains.The room was a standard King - it was clean and the bed was comfy. The shower was powerful too. The top floor position also gave us a quiet nights sleep.Parking was quite tight and there were not many spaces available when we arrived fairly late. It's near quite a few restuarants too.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r566127859-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -234,9 +312,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Caleb b, Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 9, 2018</t>
   </si>
   <si>
@@ -246,6 +321,54 @@
     <t>We stayed at this Holiday Inn Express for one night.  Overall, we were very happy with it.  The front desk staff were very friendly and helpful.  Our King Executive Room was very spacious and clean.  Nice bathroom - loved the shower which I never say.  There was a very friendly lady serving breakfast that started our day off right.  Breakfast was good.  There were only two things that bothered me a bit:  I am a very light sleeper and I could hear the hum of I-70 all night long.  There were also loud cars racing by at night that kept me up.  Maybe ask for a room on the back of the hotel.  Also - there was a very sketchy car full of people smoking pot in the parking lot.  It was about 10pm and I think this is legal in Colorado but the area all together wasn't the best.  I definitely wouldn't send a kid down to the car at night to get something - keep them close.  But - other than that - it was a fine hotel!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r564742557-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564742557</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel in Denver - Good facility and staff</t>
+  </si>
+  <si>
+    <t>Stayed here a few nights for business, very good value for a clean safe secure hotel with a decent free breakfast. The rooms and entire facility is clean and the beds are comfortable. Rooms have a Keurig coffee maker along with mini fridge. The attendant at breakfast area was very friendly and helpful, I wish I got her name, I also stayed at a higher star hotel in Denver this week and frankly I preferred this Holiday Inn Express. I would stay here again and I recommend to others. Good value and nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Caleb b, Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here a few nights for business, very good value for a clean safe secure hotel with a decent free breakfast. The rooms and entire facility is clean and the beds are comfortable. Rooms have a Keurig coffee maker along with mini fridge. The attendant at breakfast area was very friendly and helpful, I wish I got her name, I also stayed at a higher star hotel in Denver this week and frankly I preferred this Holiday Inn Express. I would stay here again and I recommend to others. Good value and nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r563156866-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>563156866</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel, will stay when back in Denver</t>
+  </si>
+  <si>
+    <t>Hotel is awesome, More then other's but worth it. Sandy was so great in the breakfast area, every morning she wanted to see if there was anything she could do for you!! Cleaning staff was great, stayed 4 nights and hats off to all the staff!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Caleb b, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is awesome, More then other's but worth it. Sandy was so great in the breakfast area, every morning she wanted to see if there was anything she could do for you!! Cleaning staff was great, stayed 4 nights and hats off to all the staff!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r559788200-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -264,9 +387,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Caleb b, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded February 12, 2018</t>
   </si>
   <si>
@@ -318,6 +438,63 @@
     <t>Provided exactly what you need.Clean bed, fresh linen, carpet well maintained, bathroom was spotless. Check in was a breeze, staff seemed genuinely interested in being there. The onsite gym had everything you need for weights and cardio.Keep up the great work!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r521378488-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>521378488</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Noisy but clean</t>
+  </si>
+  <si>
+    <t>Small parking lot. Very busy intersection and area and seems to share space with the La Quinta next door. Close to the airport but far enough away to have a $$$ cab bill. Check in was smooth and the desk attendants very welcoming and helpful. The crowd staying here was a little sketchy but I later found out a music festival was in town the same weekend I was there. I tried to get to bed early for a 6am flight but the room I was given was close to the elevators and very noisy all night long. Other hotel guests in the hall were loud, doors slamming, and running around until past 11pm. I also had difficulty getting the AC unit to stay on, it would kick on for 5 mins and then shut off (had it stayed on the noise wouldn't have been so bothersome). The room was clean and spacious but I probably would not stay here again especially for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Small parking lot. Very busy intersection and area and seems to share space with the La Quinta next door. Close to the airport but far enough away to have a $$$ cab bill. Check in was smooth and the desk attendants very welcoming and helpful. The crowd staying here was a little sketchy but I later found out a music festival was in town the same weekend I was there. I tried to get to bed early for a 6am flight but the room I was given was close to the elevators and very noisy all night long. Other hotel guests in the hall were loud, doors slamming, and running around until past 11pm. I also had difficulty getting the AC unit to stay on, it would kick on for 5 mins and then shut off (had it stayed on the noise wouldn't have been so bothersome). The room was clean and spacious but I probably would not stay here again especially for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r504273900-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>504273900</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>New, nice</t>
+  </si>
+  <si>
+    <t>Stayed here for just one night but the rooms were very clean and nice and the staff was very friendly to me.  The overall hotel seemed very new and modern.  I would stay here again.  It's close to the interstate and easy to get to as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for just one night but the rooms were very clean and nice and the staff was very friendly to me.  The overall hotel seemed very new and modern.  I would stay here again.  It's close to the interstate and easy to get to as well.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r501079734-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -333,12 +510,6 @@
     <t>After notifying the hotel that my flight was delayed and I'd be checking in very late, I arrived at this Holiday Inn Express past midnight. No one was at the counter, so I had to ring the bell and wait for a bit - no biggie. The front desk attendant Edgar stumbled out from some room in the back and proceeded to check me extremely slowly. Finally, after receiving my room keys, I went up to my room. Everything was fine until I checked the bathroom. Someone had left me a "present" in the toilet. I called down and received Edgar who was tired and who rudely told me:1.I couldn't switch rooms due to availability2. Someone had cleaned my room already3. Essentially this was my fault for checking in so lateI understand that this hotel is on the budget side, but all I'm asking for is a friendly reception and a clean room. It failed on both counts. I would save your money and stay at any of the other surrounding hotels that can meet the bare minimum a weary traveler requires.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 13, 2017</t>
   </si>
   <si>
@@ -390,6 +561,54 @@
     <t>We spent one night and we were pleasantly suprised. The hotel and rooms were very clean. The beds were very comfortable. The bath was an improvement over most hotels with a tub shower. It had a large safety bar on the wall about waist high and the length of the tub. If you can'take have a stall shower like many of the  newer hotels have this would be the next best thing. We senior citizens are more conscious  about  falling in a tub shower.  The walls  are things and you can easily hear persons in the hall adjoining  rooms and people walking in the room  above.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r497552678-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>497552678</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was perfect for my 16 year old daughter and I to stay in while we visited family. All the staff was very friendly and the room was very clean. Usually when I stay at any hotel, I wake up with back pain but the bed here was perfect and I had no pain when I woke up!  Breakfast was delicious as well.  Definitely will stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was perfect for my 16 year old daughter and I to stay in while we visited family. All the staff was very friendly and the room was very clean. Usually when I stay at any hotel, I wake up with back pain but the bed here was perfect and I had no pain when I woke up!  Breakfast was delicious as well.  Definitely will stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r496682590-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>496682590</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Field training soecialist</t>
+  </si>
+  <si>
+    <t>Was here for work - first week worked 81 hours just to be accused without substantiation(no one contacted me) of having my husband and children with me!  GM wrote my home office and complained.  I'm 52, youngest is 18.  It was the family across the hall - who I asked to please be quite because their kids were playing football in the hall.  Didn't complain and this is what I get!  Wow how stupid is this GM!!!  Guess our company won't be staying here anymore.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Was here for work - first week worked 81 hours just to be accused without substantiation(no one contacted me) of having my husband and children with me!  GM wrote my home office and complained.  I'm 52, youngest is 18.  It was the family across the hall - who I asked to please be quite because their kids were playing football in the hall.  Didn't complain and this is what I get!  Wow how stupid is this GM!!!  Guess our company won't be staying here anymore.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r493983121-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -405,9 +624,6 @@
     <t>My wife and i where up there on a hospital visit for our son. The hotel was very close to the hospital (U.C. hospital). We were there for 5 days.  Two people i need to mention are sandy the breakfast attendant and donna at the front desk. They were the most proffessional and caring people we have ever met. They had our best intrest at all times. Thank you for everything and if we have the opportunity to stay there again we will.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 19, 2017</t>
   </si>
   <si>
@@ -471,6 +687,57 @@
     <t>Despite the fact this hotel has the worst development layout I've ever seen, the property is new, clean, and convenient to the Denver Airport.  The included buffet breakfast was well stocked, and the rooms were well appointed and clean.  You'll find the entrance of the Holiday Inn Express by driving around to the back of the La Quinta Hotel next door.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r466019765-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>466019765</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Ok Hotel</t>
+  </si>
+  <si>
+    <t>Decent hotel for business stay, nothing fancy. Located just minutes off highway. About 15 minutes from Denver Airport. Clean room. Comfy pillows. Good breakfast.  The hotel walls are thin so you will hear your neighbor sneeze.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Decent hotel for business stay, nothing fancy. Located just minutes off highway. About 15 minutes from Denver Airport. Clean room. Comfy pillows. Good breakfast.  The hotel walls are thin so you will hear your neighbor sneeze.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r455049479-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>455049479</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Perfect stop off</t>
+  </si>
+  <si>
+    <t>We'd traveled for 22 hours and arrived late at night at this hotel. We knew we'd come to the right place when the young woman who checked us in did so with grace, charm and professionalism. Our room was large, clean, comfortable, well appointed and quiet. The wifi was good and the breakfast adequate; it's an express breakfast after all, free and not fancy. The only criticism is the use of disposable cups, plates, bowls and cutlery...everywhere. That said, this is a well run hotel. Book with confidence.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>We'd traveled for 22 hours and arrived late at night at this hotel. We knew we'd come to the right place when the young woman who checked us in did so with grace, charm and professionalism. Our room was large, clean, comfortable, well appointed and quiet. The wifi was good and the breakfast adequate; it's an express breakfast after all, free and not fancy. The only criticism is the use of disposable cups, plates, bowls and cutlery...everywhere. That said, this is a well run hotel. Book with confidence.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r450559410-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -486,9 +753,6 @@
     <t>This weekend was our 3rd visit to this hotel.  The rooms are clean, beds are comfy and we love the breakfast.  And it's close to Northfield for shopping and dining. The staff is always friendly and helpful.  Can't wait for our next visit to this location, it's relaxing and quiet.MoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded January 9, 2017</t>
   </si>
   <si>
@@ -552,30 +816,69 @@
     <t>The hotel is nearly brand new, but it feels like it was just done in a hurry. There was not enough space geographically for the hotel to even be built really...the parking lot is small and inadequate, and the hotel seems to be crammed into a busy street corner with horrible access and barely enough room to maneuver a normal-sized vehicle, let alone a large truck or van. Inside, everything looks brand new and is very aesthetically pleasing, but again it just feels cramped. Walking into the room, the bathroom is immediately on your right or left and when the door is open, it blocks access to the rest of the room, so you have to close the bathroom door to go further. Our bathroom door however, would not stay closed on its own unless latched because the wall was build at a slight incline so the door would just creep open until it was open entirely, thus blocking access to leaving the room. It just felt like the building was built as quickly and cheaply as possible.The staff was extremely friendly and helpful though, and the continental breakfast was very good. Overall, I have had much worse hotel visits, but for the price and expectations of a Holiday Inn and Suites, this hotel was not quite up to par.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r433422600-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>433422600</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Clean Rooms, Good Breakfast</t>
+  </si>
+  <si>
+    <t>Always love to stay at this location Staff is super friendly, especially Donna whom is very professional and nice. Our room was very clean and breakfast is good in the morning.  I would recommend this location for business &amp; pleasure travelers!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Always love to stay at this location Staff is super friendly, especially Donna whom is very professional and nice. Our room was very clean and breakfast is good in the morning.  I would recommend this location for business &amp; pleasure travelers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r428213539-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>428213539</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>No complaints here</t>
+  </si>
+  <si>
+    <t>We have been here for several days and have a few more to go. The place is kept clean, the staff are nice and friendly. They have free breakfast everyday and unlike most, they have eggs, biscuits and gravy, hot cinnamon rolls, bread, bagels, cereal and so on it's amazing. We have a deluxe king room and it's huge! We will definitely stay at the holiday inns when we travel. This one in particularly made this an easy decision to make. MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>We have been here for several days and have a few more to go. The place is kept clean, the staff are nice and friendly. They have free breakfast everyday and unlike most, they have eggs, biscuits and gravy, hot cinnamon rolls, bread, bagels, cereal and so on it's amazing. We have a deluxe king room and it's huge! We will definitely stay at the holiday inns when we travel. This one in particularly made this an easy decision to make. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r428161080-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
     <t>428161080</t>
   </si>
   <si>
-    <t>10/15/2016</t>
-  </si>
-  <si>
     <t>Comfortable Stay with No Surprises</t>
   </si>
   <si>
     <t>We stayed 3 nights in mid October.We have a certain expectation of Holiday Inn Express properties and this met our expectations.  The double queen room was spacious and clean.  The buffet breakfast was the standard fare, which is to say acceptable without being anything special.Our only complaint was with the WiFi which was difficult to log onto for unknown reasons.  We had the front desk re-boot the sytsem, which seemed to help.Otherwise, if you like Holiday Inn Express properties you will not be disappointed with this one.One comment: we booked this through Hotel Tonight, a third-party booking service and when we arrived the clerk asked for our credit card for incidentals, a common request.  However when we reviewed our on-line credit card statement the next day, we found that the hotel had charged our hotel stay to our personal credit card, which was a mistake.  I pointed this out to the hotel front desk the following day and they corrected the mistake within 2 days.  This was acceptable, but you should check to make sure the same thing does not happen to you if you book through a third-party booking service.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded October 18, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 18, 2016</t>
-  </si>
-  <si>
     <t>We stayed 3 nights in mid October.We have a certain expectation of Holiday Inn Express properties and this met our expectations.  The double queen room was spacious and clean.  The buffet breakfast was the standard fare, which is to say acceptable without being anything special.Our only complaint was with the WiFi which was difficult to log onto for unknown reasons.  We had the front desk re-boot the sytsem, which seemed to help.Otherwise, if you like Holiday Inn Express properties you will not be disappointed with this one.One comment: we booked this through Hotel Tonight, a third-party booking service and when we arrived the clerk asked for our credit card for incidentals, a common request.  However when we reviewed our on-line credit card statement the next day, we found that the hotel had charged our hotel stay to our personal credit card, which was a mistake.  I pointed this out to the hotel front desk the following day and they corrected the mistake within 2 days.  This was acceptable, but you should check to make sure the same thing does not happen to you if you book through a third-party booking service.More</t>
   </si>
   <si>
@@ -630,6 +933,57 @@
     <t>I only can say that everything was good, the price cheap, room modern and spacious and nice decorated and the bathroom the perfect size. The only issue was on the shower, everytime I showered the water came out and flooded the bathroom. The staff were kind.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r413074210-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>413074210</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Business Travel</t>
+  </si>
+  <si>
+    <t>Nice property.  Good access.  Comfortable bed. Breakfast had good variety and eating area was nice.  Several eating places in the area. Free wifi. Staff were efficient at check-in.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Nice property.  Good access.  Comfortable bed. Breakfast had good variety and eating area was nice.  Several eating places in the area. Free wifi. Staff were efficient at check-in.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r405244749-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>405244749</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good stop for weary travelers </t>
+  </si>
+  <si>
+    <t>We stopped in and Natalie was very polite and friendly.  Room was clean and bed comfortable.  We were awaken around midnight from noise in room next to us but once we called down it was quickly taken care of.  Large selection for breakfast. Hitting the road again and will more then likely stay at another Holiday Inn express.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>We stopped in and Natalie was very polite and friendly.  Room was clean and bed comfortable.  We were awaken around midnight from noise in room next to us but once we called down it was quickly taken care of.  Large selection for breakfast. Hitting the road again and will more then likely stay at another Holiday Inn express.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r399410108-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -702,6 +1056,54 @@
     <t>The hotel is clean and seems relatively new. However, the best part of the hotel was the young woman (Sarah) who was AMAZING!! She was kind, efficient, and she went the extra mile every time we saw her. We are staying for a week and she makes our trip from home easier!! An outstanding employee and phenomenal customer service!! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r386795993-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>386795993</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Is there a negative rating??</t>
+  </si>
+  <si>
+    <t>Hard for me to give this hotel a rating of one! Paper thin walls - you can hear conversations in rooms on both side, above and below. No sleep during my stay! Rock hard bed-and I like hard mattresses. The Mexican restaurant in the parking lot was good and convenient - street tacos rocked. Sorry ... Couldn't find anything good to say about the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Hard for me to give this hotel a rating of one! Paper thin walls - you can hear conversations in rooms on both side, above and below. No sleep during my stay! Rock hard bed-and I like hard mattresses. The Mexican restaurant in the parking lot was good and convenient - street tacos rocked. Sorry ... Couldn't find anything good to say about the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r385136082-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>385136082</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Convenient and quite</t>
+  </si>
+  <si>
+    <t>Surprisingly quiet for being so close to the interstate.  I was attending training at the hotel and the facilities were good and the rooms were clean and comfortable.  Nice mini fridge in the room.  The breakfast was good and had a lot of variety of choices.   Close to the airport and easy access to everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Surprisingly quiet for being so close to the interstate.  I was attending training at the hotel and the facilities were good and the rooms were clean and comfortable.  Nice mini fridge in the room.  The breakfast was good and had a lot of variety of choices.   Close to the airport and easy access to everything.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r373913577-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -771,6 +1173,60 @@
     <t>I wasn't impressed with my stay.  The staff wasn't all that friendly.  Breakfast was below standard from my extensive experience.  Stale biscuits on Monday and luke warm gravy all three days I was there.Of all the HIE's I stay in as a Spire Guest, I never have seen a tip jar in the breakfast room.  Never.  I was amazed considering my disappointment with the quality of breakfast.The room was okay, but nothing out of the ordinary for an HIE.  Average at best.I thought of checking out early from this average property, but stuck it out.  However, in the competitive world of hotels, I'll withhold a strong recommendation in lieu of saying this was an average experience.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r357684320-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>357684320</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay!</t>
+  </si>
+  <si>
+    <t>We enjoyed ourselves at this hotel. The room was comfortable. I really liked the personal coffee machine and it was very tidy. We had fun at the pool and hot tub and were happy to have a big spread for breakfast in the morning. We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>We enjoyed ourselves at this hotel. The room was comfortable. I really liked the personal coffee machine and it was very tidy. We had fun at the pool and hot tub and were happy to have a big spread for breakfast in the morning. We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r351556300-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>351556300</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Great stay at HIE at 45th and Peoria!</t>
+  </si>
+  <si>
+    <t>Wonderful and friendly staff, from front desk to manager to housekeeping! Very clean, new and well appointed rooms. Nice and quiet, too, with easy access just off I-70 and close to DIA. This hotel is only about 7 minutes from Northfield Shops where many restaurants are available. An oasis in an otherwise commercial area. Thank you!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Wonderful and friendly staff, from front desk to manager to housekeeping! Very clean, new and well appointed rooms. Nice and quiet, too, with easy access just off I-70 and close to DIA. This hotel is only about 7 minutes from Northfield Shops where many restaurants are available. An oasis in an otherwise commercial area. Thank you!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r340679888-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -849,6 +1305,51 @@
     <t>We absolutely love staying at this location, It is awesome to be able to walk in and feel welcomed at this location Donna made us feel welcome,  She is great and friendly.  The rooms are very clean,  good breakfast hot &amp; Cold .  This  property gets two thumbs up!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r324464879-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>324464879</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Consistent Quality from Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>I didn't initially plan to stay at this hotel. After leaving another motel nearby because they had a water issue, I checked in here late. My typical experience with Holiday Inn Express is sharp lobby, welcoming attitude, crisp and clean rooms and this met the mark. From start to finish this was a quality product and I'd consider this hotel again. My rating is based on my overall rating of the experience and the property. Obviously this is a budget hotel that was 5 star experience for what they are working with.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>I didn't initially plan to stay at this hotel. After leaving another motel nearby because they had a water issue, I checked in here late. My typical experience with Holiday Inn Express is sharp lobby, welcoming attitude, crisp and clean rooms and this met the mark. From start to finish this was a quality product and I'd consider this hotel again. My rating is based on my overall rating of the experience and the property. Obviously this is a budget hotel that was 5 star experience for what they are working with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r324283574-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>324283574</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Great Location, close to CO University Hospital, close to restaurants and fast food, good variety. Close to shopping centers.  Holiday Inn Express is clean, acommodating, adequate parking, feel safe very well lit up and secure.  Donna is very professional is always willing to go the extra mile to accomodate when any issues arrise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Location, close to CO University Hospital, close to restaurants and fast food, good variety. Close to shopping centers.  Holiday Inn Express is clean, acommodating, adequate parking, feel safe very well lit up and secure.  Donna is very professional is always willing to go the extra mile to accomodate when any issues arrise.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r323635613-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -888,9 +1389,6 @@
     <t>Great hotel, great rooms. Very clean, lobby bright and roomy. Staff very friendly and courteous especially evening manager Donna Washington. She was very knowledgeable of the area and helped with all my questions. I will be staying there again and highly recommend to othersMoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>Great hotel, great rooms. Very clean, lobby bright and roomy. Staff very friendly and courteous especially evening manager Donna Washington. She was very knowledgeable of the area and helped with all my questions. I will be staying there again and highly recommend to othersMore</t>
   </si>
   <si>
@@ -918,6 +1416,57 @@
     <t>I was pleasantly surprised when I pulled up to this property, it appears to be new. But the noise level was really surprising. I could actually understand the conversation my neighbors were having and the the sound of the elevator was loud enough that it seemed like I was keeping in front of it. And a tip jar in the breakfast area??? That was weird.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r312915420-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>312915420</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>A Little Piece of Heaven</t>
+  </si>
+  <si>
+    <t>I LOVE this hotel. Everything was amazing, from the moment I walked into the lobby. The staff was friendly and professional. I only remember one name (sorry) and that is Caleb. He was so knowledgeable about the area, very welcoming to my family and I, and made check-in an absolute delight. The lobby and hallways were immaculate and they smell so fresh! When we got to our room we were pleasantly surprised. There was so much space. The furniture all looks very modern. The TV's were nice and there were so many channels. Our beds were incredibly comfortable and we had more than enough pillows (which doesn't normally happen). The bathroom was great too. Lots of counter space and shelves for 5 girls to get ready at the same time. The shower was heavenly, especially after a long day. The pool was so neat, with the turtles. The hot tub was fantastic. Not too hot, not too cold. Also, the breakfast. Ahh, the breakfast was DELICIOUS. Everything looked-- and smelled-- wonderful. My favorite were the cinnamon rolls. Really, there is not a single thing I would've changed about my stay-- except to make it longer. You'll be seeing us again soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>I LOVE this hotel. Everything was amazing, from the moment I walked into the lobby. The staff was friendly and professional. I only remember one name (sorry) and that is Caleb. He was so knowledgeable about the area, very welcoming to my family and I, and made check-in an absolute delight. The lobby and hallways were immaculate and they smell so fresh! When we got to our room we were pleasantly surprised. There was so much space. The furniture all looks very modern. The TV's were nice and there were so many channels. Our beds were incredibly comfortable and we had more than enough pillows (which doesn't normally happen). The bathroom was great too. Lots of counter space and shelves for 5 girls to get ready at the same time. The shower was heavenly, especially after a long day. The pool was so neat, with the turtles. The hot tub was fantastic. Not too hot, not too cold. Also, the breakfast. Ahh, the breakfast was DELICIOUS. Everything looked-- and smelled-- wonderful. My favorite were the cinnamon rolls. Really, there is not a single thing I would've changed about my stay-- except to make it longer. You'll be seeing us again soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r311654817-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>311654817</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>Stay away from this location</t>
+  </si>
+  <si>
+    <t>This hotel is very hard to find small parking lot no security in a seedy area of Denver. People off the street share rooms and breakfast making us question why we pay 152 per nite while they get for free. They own and manage the hotel next door which Im sure is the same situation. We had issues with non working wifi they replaced our 2 double  room with 1 bed and pull out after companion could not sleep they allowed her to sleep in the original room To my amazement they double billed  us for this after we were advised would be no chargeMoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is very hard to find small parking lot no security in a seedy area of Denver. People off the street share rooms and breakfast making us question why we pay 152 per nite while they get for free. They own and manage the hotel next door which Im sure is the same situation. We had issues with non working wifi they replaced our 2 double  room with 1 bed and pull out after companion could not sleep they allowed her to sleep in the original room To my amazement they double billed  us for this after we were advised would be no chargeMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r307953748-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -933,9 +1482,6 @@
     <t>My wife and I stayed here on our second night in Denver. The location was convenient to an appointment that I had on the following day. The front desk person was very friendly, and the room was clean and what I expect. The hot tub was ok. The location of the hotel doesn't have a lot of food options within walking distance, although there is a Mexican food restaurant  in the same parking lot (see review). As far as the neighborhood, I was a little concerned, but I didn't have any problems. My stay was what I expected. I have stayed at several HI Express locations and this location is consistent with the brand. If I needed to stay in this area again, I might return to this location.MoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded September 9, 2015</t>
   </si>
   <si>
@@ -999,6 +1545,54 @@
     <t>I like the room. The hotel is nice and in a nice area. Good breakfast.very nice staff. Only thing is the fan in bathroom doesnt work. I told the staff they said it will be fixed by morning and they still haven't fixed it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r290816289-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>290816289</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Staff was very friendly but amenities were awful</t>
+  </si>
+  <si>
+    <t>The rooms were clean - we rented 2 rooms.  The staff was very friendly and helpful.  The free breakfast (although it is worked into the price of the room, so it is not really free) was awful.  The eggs were stuffed with pimento cheese, the biscuits were very hard.  The gravy was very cold and lumpy.  I stayed at several different Holiday Inn Express hotels (4 different ones in the last 5 days) and this one was the only one that had this problem.  If I was staying in Denver, CO. again I would avoid this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>The rooms were clean - we rented 2 rooms.  The staff was very friendly and helpful.  The free breakfast (although it is worked into the price of the room, so it is not really free) was awful.  The eggs were stuffed with pimento cheese, the biscuits were very hard.  The gravy was very cold and lumpy.  I stayed at several different Holiday Inn Express hotels (4 different ones in the last 5 days) and this one was the only one that had this problem.  If I was staying in Denver, CO. again I would avoid this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r286165091-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>286165091</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Worst Management &amp; Place</t>
+  </si>
+  <si>
+    <t>Evening check in crew is good and friendly but they have limitations as hotel rooms are very hot.  Morning crew looks very tense and General Manager Caleb doesn't know anything about customer service.  Hotel needs a new GM for sure as he just says sorry and will not refund any money,  get ready to shower in clogged drain as he has no clue of preventative maintenance.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, Owner at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Evening check in crew is good and friendly but they have limitations as hotel rooms are very hot.  Morning crew looks very tense and General Manager Caleb doesn't know anything about customer service.  Hotel needs a new GM for sure as he just says sorry and will not refund any money,  get ready to shower in clogged drain as he has no clue of preventative maintenance.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r281032398-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1014,9 +1608,6 @@
     <t>This property is slightly below average from HIE ( I have stayed in maybe 10 different ones).  The room was OK, but the toilet was wobbly and the lighting dim.  Location is functional, but not an especially nice part of Denver (lots of light industrial) and near the airport (which is almost in Kansas).  There is a good Mexican restaurant next door.  But because there were a bunch of highway workers staying there, they jacked the price to over $220.00 for one person.  That is too much for an HIE.  I had already driven 500 miles that day so was not ready to shop around.  I know supply/demand pricing is part of the hotel game, but it was too much.  I felt like a 49er who was sold a shovel and a dozen eggs for $300.00.MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 19, 2015</t>
   </si>
   <si>
@@ -1077,6 +1668,45 @@
     <t>This hotel was a pleasant surprise. From the moment we walked in to check in we felt welcomed. Even though it was a line waiting to check in we never minded waiting our turn. Donna is one of the best  I have met on this 14 day road trip.  We loved everything about this IHG property. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r279704809-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>279704809</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>This hotel seemed to have been more recently renovated compared to others. Room was clean and the staff very accommodating and professional. Super comfy pillows and bed !  Bathroom was large and stocked with lots of soft towels. Wifi connection fast and solid. Great stay while traveling through. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel seemed to have been more recently renovated compared to others. Room was clean and the staff very accommodating and professional. Super comfy pillows and bed !  Bathroom was large and stocked with lots of soft towels. Wifi connection fast and solid. Great stay while traveling through. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r277946239-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>277946239</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Best hotel in Denver area.</t>
+  </si>
+  <si>
+    <t>Second time I have stayed here. Both times were long term stays of one month or longer. This is my number-1 choice for the entire Denver area. Close to airport and all major highways. Easy access and numerous restaurants close by. Many within walking distance. The staff is friendly and the hotel is one of the cleanest I have ever stayed. Front desk afternoon manager Donna is an absolute delight, very helpful, and truly cares about guest happiness. The breakfast is good and always fresh. The cleanliness of the hotel is excellent. No reason to stay anywhere else when working or visiting Denver. If you don't stay here, you've made a mistake.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Second time I have stayed here. Both times were long term stays of one month or longer. This is my number-1 choice for the entire Denver area. Close to airport and all major highways. Easy access and numerous restaurants close by. Many within walking distance. The staff is friendly and the hotel is one of the cleanest I have ever stayed. Front desk afternoon manager Donna is an absolute delight, very helpful, and truly cares about guest happiness. The breakfast is good and always fresh. The cleanliness of the hotel is excellent. No reason to stay anywhere else when working or visiting Denver. If you don't stay here, you've made a mistake.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r271943510-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1155,6 +1785,57 @@
     <t>The hotel appears to be newer and was very clean. There were a few problems: when we arrived the room smelled like laundry detergent, parts of the hotel at various times smelled like pot and the room was not soundproof. There were several signs posted throughout the hotel indicating that you could not smoke pot so I would assume its been an ongoing issue. We could hear everything through the walls, the toilet flush, the shower starting, the television and people's conversations in the nearby rooms. In the morning the housekeeping staff was extremely loud and it sounded like they hit our door with the vacuum.  One thing to note is that our room did not have a tub only a shower and it wasn't an accessible room. It was fine for us but I can see where some people may need a tub. The location was acceptable for us as we were visiting Dicks Sporting Goods Park and it was only a few minutes drive away.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r260574374-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>260574374</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Best hotel near University Hospital</t>
+  </si>
+  <si>
+    <t>My family comes to Denver often for my dad's doctor appts.  We have stayed with them several times within the last couple of months and have no reason to go anywhere else.  The staff knows us by name and is very friendly.  They are always willing to accommodate us, whether we are asking for an extra night or a specific floor or room.  The hotel itself is really nice and the rooms are clean. The continental breakfast is great and has a big selection. And the location is perfect, only minutes from the hospital. Overall it is a great hotel, with wonderful staff!  I highly recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2015</t>
+  </si>
+  <si>
+    <t>My family comes to Denver often for my dad's doctor appts.  We have stayed with them several times within the last couple of months and have no reason to go anywhere else.  The staff knows us by name and is very friendly.  They are always willing to accommodate us, whether we are asking for an extra night or a specific floor or room.  The hotel itself is really nice and the rooms are clean. The continental breakfast is great and has a big selection. And the location is perfect, only minutes from the hospital. Overall it is a great hotel, with wonderful staff!  I highly recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r257916465-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>257916465</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>What a beautiful hotel!</t>
+  </si>
+  <si>
+    <t>I can not believe how nice this place was. I am usually very picky about where I stay. I have never given a Holiday Inn a shot before until now. The indoor pool and spa, very nice. The Gym, tons of space (had it all to myself!). The breaskfast was wonderful, stocked and everything I needed in the morning to get on my way fast and efficiently on my next adventure. The staff were very nice, professional and eager to serve. ;) Give this place a shot. So worth it. Also so happy that the front desk clerk told me about their rewards program. I will be back for MORE! THANK YOU!The personalized service, so so worth it. Will come again ;) Can't say this enough!MoreShow less</t>
+  </si>
+  <si>
+    <t>calebous, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>I can not believe how nice this place was. I am usually very picky about where I stay. I have never given a Holiday Inn a shot before until now. The indoor pool and spa, very nice. The Gym, tons of space (had it all to myself!). The breaskfast was wonderful, stocked and everything I needed in the morning to get on my way fast and efficiently on my next adventure. The staff were very nice, professional and eager to serve. ;) Give this place a shot. So worth it. Also so happy that the front desk clerk told me about their rewards program. I will be back for MORE! THANK YOU!The personalized service, so so worth it. Will come again ;) Can't say this enough!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r257017330-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1212,13 +1893,58 @@
     <t>We had to leave our ski lodge early because of snow coming in and we found this HI Express. It is very clean and very consistent with all other HI Express's. The desk clerk was very pleasant. We had to leave at 4am to catch our flight so we did not get to enjoy the breakfast, although she did offer to make us fresh coffee before we left.Our only complaint was that the hotel was obviously not crowded but they stuck us in a group of rooms that were occupied and we heard noise from across the hall and especially in the adjacent room. We could hear conversations between parents and children. So ask for a room that does not have neighbors and you should be fine. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r256393102-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>256393102</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Great hotel. Clean, Friendly, Convenient.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times in the past 12 months. I travel for work and have always been happy with my stay here. The hotel is new and conveniently located, the staff is super friendly and the rooms are clean. They also have a good breakfast. And there's a Starbuck's next door, which is always a plus! :) Would highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>calebous, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded February 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times in the past 12 months. I travel for work and have always been happy with my stay here. The hotel is new and conveniently located, the staff is super friendly and the rooms are clean. They also have a good breakfast. And there's a Starbuck's next door, which is always a plus! :) Would highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r256030767-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>256030767</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Very disappointing</t>
+  </si>
+  <si>
+    <t>I paid $164 for one night in a suite. We arrived late and went to pull out the hide a bed so that my 4yr old could go to sleep. I pulled off the cushion and my son screams "knive". There was an open pocket knive sticking up by the cushion. I moved it and started to pull out the bed. Under the bed was a blunt, a blunt wrapper, a marijuana container and more trash. My 4yr old started asking what it was. I was ticked that my child had been exposed to this. I went down to talk to management and they offered me 1/2 off my room. I will not be staying at this hotel again out of concern for the safety of my children.MoreShow less</t>
+  </si>
+  <si>
+    <t>calebous, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>I paid $164 for one night in a suite. We arrived late and went to pull out the hide a bed so that my 4yr old could go to sleep. I pulled off the cushion and my son screams "knive". There was an open pocket knive sticking up by the cushion. I moved it and started to pull out the bed. Under the bed was a blunt, a blunt wrapper, a marijuana container and more trash. My 4yr old started asking what it was. I was ticked that my child had been exposed to this. I went down to talk to management and they offered me 1/2 off my room. I will not be staying at this hotel again out of concern for the safety of my children.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r256019582-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
     <t>256019582</t>
-  </si>
-  <si>
-    <t>02/23/2015</t>
   </si>
   <si>
     <t>New Hotel, thin walls, not much too close by</t>
@@ -1231,12 +1957,6 @@
 Bottom line is everything in the breakfast is frozen manufactured, and a muffin from McD's would be better.  But I know value...I was traveling thru Colorado and the snow storm made me stay in Denver.  This H.I.E. was close and available at the last .  This is a brand new hotel, and decor and furnishing shows like its new.  The desk staff was good.  I paid $99/night as a last minute reservation on a Saturday night.  Now I have to mention the walls are very thin, thin enough that I could hear my neighbors hitting a bong,  I could hear the water bubbling, then coughing up a storm, till very late hours of the morning. I wish they were having sex as that would of only gone on for only 2 minutes...LOL  Bedding was comfortable, but the sheets and comforter were made up too short to cover up the shoulders of a grown man, no big deal as I just had to pull everything out from being tucked into the mattress.They have a complimentary b-fast buffet.  Now for me, I wish they didn't and just discounted the room by $4-5 dollars. But since its there I have to partake in it.  Coffee was hotel quality, the egg thing, is a manufactured product that almost looks like an omelet, The Biscuits  are good but the sausage gravy ruined it, the sausage links was the only thing that tasted ok. Bottom line is everything in the breakfast is frozen manufactured, and a muffin from McD's would be better.  But I know value travelers, will appreciate it as its free.MoreShow less</t>
   </si>
   <si>
-    <t>calebous, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded February 25, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 25, 2015</t>
-  </si>
-  <si>
     <t>I was traveling thru Colorado and the snow storm made me stay in Denver.  This H.I.E. was close and available at the last .  This is a brand new hotel, and decor and furnishing shows like its new.  The desk staff was good.  I paid $99/night as a last minute reservation on a Saturday night.  
 Now I have to mention the walls are very thin, thin enough that I could hear my neighbors hitting a bong,  I could hear the water bubbling, then coughing up a storm, till very late hours of the morning. I wish they were having sex as that would of only gone on for only 2 minutes...LOL  
 Bedding was comfortable, but the sheets and comforter were made up too short to cover up the shoulders of a grown man, no big deal as I just had to pull everything out from being tucked into the mattress.
@@ -1291,6 +2011,60 @@
     <t>good quality airport hotel convenient to rental car return -  adequate restaurant on site -  booked thru hotwire - friendly staff - would return. hotel appears to be new or recently remodeled. many other hotels in immediate areaMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r244290698-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>244290698</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>Great value, very pleasant staff, close to airport</t>
+  </si>
+  <si>
+    <t>I've been a patron of Holiday Inn express for more than a few years now. Initially I was drawn to the free breakfast, but as their rebranding initiative has continued, they have become my preferred hotel of choice. I find each to be very pleasantly decorated and this location in Denver was no exception. The lighting fixtures have a "mission style" look and serve to differentiate the hotel room from the standard long rectangle design. And the staff, and I'm sorry I can't recall the front desk person's name, but she was not only pleasant but so professional with how she addressed each customer. (there was a bit of a wait but she handled guests with a zen like manner) She suggested the Northridge Mall for dinner and some shopping and and excellent dinner and our review of the Zen restaurant resulted. An excellent place to visit, a good nights sleep and pleasant people employed there. Nice job, HIE.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded December 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2014</t>
+  </si>
+  <si>
+    <t>I've been a patron of Holiday Inn express for more than a few years now. Initially I was drawn to the free breakfast, but as their rebranding initiative has continued, they have become my preferred hotel of choice. I find each to be very pleasantly decorated and this location in Denver was no exception. The lighting fixtures have a "mission style" look and serve to differentiate the hotel room from the standard long rectangle design. And the staff, and I'm sorry I can't recall the front desk person's name, but she was not only pleasant but so professional with how she addressed each customer. (there was a bit of a wait but she handled guests with a zen like manner) She suggested the Northridge Mall for dinner and some shopping and and excellent dinner and our review of the Zen restaurant resulted. An excellent place to visit, a good nights sleep and pleasant people employed there. Nice job, HIE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r240465187-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>240465187</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Staff consistently the best!</t>
+  </si>
+  <si>
+    <t>I have been staying here for business since June anywhere from 1-5 days at a time.  The staff has always been great.  In particular Donna really makes you feel at home and is a wealth of information about Denver and the immediate surrounding area.  I've witnessed some guest situations that she has handled professionally resulting in a favorable outcome where others may have failed.  Between Donna and the great amenities here, I will always stay here when I'm on this side of town!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2014</t>
+  </si>
+  <si>
+    <t>I have been staying here for business since June anywhere from 1-5 days at a time.  The staff has always been great.  In particular Donna really makes you feel at home and is a wealth of information about Denver and the immediate surrounding area.  I've witnessed some guest situations that she has handled professionally resulting in a favorable outcome where others may have failed.  Between Donna and the great amenities here, I will always stay here when I'm on this side of town!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r240000738-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1306,9 +2080,6 @@
     <t>This Holiday Inn is new and was very clean, which I was very happy about.  The beds were very comfortable.  I loved the pillows. The parking spaces are a little tight since there is a La Quinta right beside it (they were full and cost less).  There is a clean 7-11 that you can walk to for snacks across the street.  We were there for a busy early Saturday morning breakfast and so the options were running pretty low.  We enjoyed our stay because it was clean, and will stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded November 17, 2014</t>
   </si>
   <si>
@@ -1358,6 +2129,57 @@
   </si>
   <si>
     <t>This hotel, and especially the people who work here are wonderful. Having actually had to live in this hotel for 5 weeks, the woman who works at the front desk, Donna, went above and beyond to make me feel like I was at home. I'd highly recommend staying here and would gladly come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r232056236-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>232056236</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Nice New Hotel in Denver area</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new.  Overall, I was happy with the stay.  The beds were comfortable, the employees were nice and helpful, and they do offer a great selection for the complimentary breakfast.  The rooms were average.  The pillows could have been a bit softer, the air conditioner was a bit annoying (didn't keep the room at a consistent temperature and was louder than expected from a new air conditioner), and the insulation between the walls must be thin as we heard the kids in the room next to us and the person walking above us. Nothing major, just some small annoyances.  I would probably stay here again when back in denver, but would look around if there was a comparable hotel in the same general area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new.  Overall, I was happy with the stay.  The beds were comfortable, the employees were nice and helpful, and they do offer a great selection for the complimentary breakfast.  The rooms were average.  The pillows could have been a bit softer, the air conditioner was a bit annoying (didn't keep the room at a consistent temperature and was louder than expected from a new air conditioner), and the insulation between the walls must be thin as we heard the kids in the room next to us and the person walking above us. Nothing major, just some small annoyances.  I would probably stay here again when back in denver, but would look around if there was a comparable hotel in the same general area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r231251683-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>231251683</t>
+  </si>
+  <si>
+    <t>09/27/2014</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Only stayed one nite on arrival to denver nice, friendly lady at reception. Room was good nice and new, lovely shower. Good breakfast. Wish we could hav stayed longer. Would stay again if visiting Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Only stayed one nite on arrival to denver nice, friendly lady at reception. Room was good nice and new, lovely shower. Good breakfast. Wish we could hav stayed longer. Would stay again if visiting Denver.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r229757114-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
@@ -1377,9 +2199,6 @@
 The only complaint I have is the wireless internet connection. I've stayed here 3 times in the last 4 months and every time has been a truly horrible connection. When it's connected it's super...The building is fairly new and the staff is very friendly and helpful. The attendant working afternoon/evening remembers me every time I show up. Rooms are clean, comfortable, and well appointed (the bed is actually quite comfortable). For a continental breakfast I rate it a little above average. I've seen some reviews complaining about noise but I have not had that experience. I stay in a lot of hotels, noise level here seems pretty average to me - no hotel will ever be as quiet as being at home.The surrounding area is not a hotspot of social entertainment, so if you're looking for nightlife this isn't the place. There are a couple restaurants in the nearby area, but nothing to brag about. Stapleton is only 5 minutes west and there are many places to eat and drink. The Mexican restaurant across the parking lot looks like a dive but is surprisingly great (check out their yelp reviews), plus they offer a slight discount to Holiday Inn guests. This location is a minimum of 30 minutes to downtown, depending on the time of day you go, but expect it to take longer because traffic here is a living organism that is different from day to day. The only complaint I have is the wireless internet connection. I've stayed here 3 times in the last 4 months and every time has been a truly horrible connection. When it's connected it's super slow, and it loses connection VERY frequently. I've had to use my phone's hotspot for nearly all the work I've done here. I'm using it now to post this review, because the connection in my room vaporized....I have to do a lot of work from hotel rooms, so to be quite honest, I have to start considering not using this hotel again unless this issue gets better. No complaints whatsoever about the facility or staff, just the wireless connection - it's how I do my job so I can't survive with a poor one.MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded September 22, 2014</t>
   </si>
   <si>
@@ -1439,6 +2258,45 @@
     <t>Stayed four nights during a softball tournament. Nice new building. ProsGreat HD tv with direct tv satellite and 5 HBO channelsGreat beds and pillowsNice acBeautiful bathroomsEasy access to I-70ConsThe reviewers that said the walls are thin were not kidding! We were awakened every morning at around 5:30 am with the sound slamming doors, water running, toilets flushing, general conversation and other things. Made me mad every morning.Not great shower pressure. And I hate the shower heads all HI Expresses use. Nothing comes out of the center!!!I would probably not return to this location do to all the slamming door!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r218778467-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>218778467</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Nice Facility</t>
+  </si>
+  <si>
+    <t>Very nice and clean facility, family friendly.   Helpful and friendly staff.  Centrally located with an abundance of eating establishments in close proximity.  Easy access to I-70 and Denver International Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Very nice and clean facility, family friendly.   Helpful and friendly staff.  Centrally located with an abundance of eating establishments in close proximity.  Easy access to I-70 and Denver International Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r218356673-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>218356673</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Clean, quiet, new with great staff</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel before a flight out -- location to Denver airport is great (approx 20min) and away from the hustle and bustle if airport hotels. Hotel is new and is incredibly clean and modern. Our room was spacious and offered everything required for an overnight stay - reliable wifi, big screen tv, coffee maker, fridge, etc. We found the front desk clerk (James I think?) to be gracious helpful and a lot of fun. He printed off directions to nearby shopping centres and recommended some restaurants for dinner. I would recommend and if I'm back to Denver I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel before a flight out -- location to Denver airport is great (approx 20min) and away from the hustle and bustle if airport hotels. Hotel is new and is incredibly clean and modern. Our room was spacious and offered everything required for an overnight stay - reliable wifi, big screen tv, coffee maker, fridge, etc. We found the front desk clerk (James I think?) to be gracious helpful and a lot of fun. He printed off directions to nearby shopping centres and recommended some restaurants for dinner. I would recommend and if I'm back to Denver I would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r217683233-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1454,9 +2312,6 @@
     <t>This hotel is pretty new and is very nice and clean. The staff was great and took care of any requests we had. Didn't get a chance to use the pool or work out area. There is a restaurant in the parking lot that has discounts for hotel guests.  MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 28, 2014</t>
   </si>
   <si>
@@ -1511,6 +2366,54 @@
     <t>Me and my fiance were walk in's with no reservations. The lady behind the desk was pleasant from the start and was sure to find me the best room for the price. We stayed for two nights in the kings suit. We were impressed how clean the room was and how comfortable the bed was, they even had firm pillows for me and soft pillows for her. The pool and hot tub was clean and fun. The free breakfast was not that bad considering it is free, but could use some improvement.Would recommend to friends!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r212709928-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>212709928</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Great new place + good location</t>
+  </si>
+  <si>
+    <t>I just spent a week there for business and going back for another.  Incredibly helpful staff and very comfortable.  Donna was knowledgeable and personable.  Get room 501 = top floor, large corner suite.  Convenient to DIA + I-70.  Nice new property with 24 hr fitness center + hot tub open 05:00-22:00.  Typical HI breakfast.  I'm going back again this week and looking forward to it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>I just spent a week there for business and going back for another.  Incredibly helpful staff and very comfortable.  Donna was knowledgeable and personable.  Get room 501 = top floor, large corner suite.  Convenient to DIA + I-70.  Nice new property with 24 hr fitness center + hot tub open 05:00-22:00.  Typical HI breakfast.  I'm going back again this week and looking forward to it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r211308532-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>211308532</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>James is amazing</t>
+  </si>
+  <si>
+    <t>We were here on a very busy weekend for a lacrosse tournament.  The hotel was very busy but not overwhelming.  The staff handle the influx of travelers very well.The rooms were clean.  Breakfast was decent. The front desk staff and housekeepers were all nice but James was the best!  He took his time and gave me advice on places to see.  He even provided me with a map to the locations.  His suggestions turned out to be fantastic. The only downside to this hotel was the pool needed to be shocked but that's to be expected after a busy weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2014</t>
+  </si>
+  <si>
+    <t>We were here on a very busy weekend for a lacrosse tournament.  The hotel was very busy but not overwhelming.  The staff handle the influx of travelers very well.The rooms were clean.  Breakfast was decent. The front desk staff and housekeepers were all nice but James was the best!  He took his time and gave me advice on places to see.  He even provided me with a map to the locations.  His suggestions turned out to be fantastic. The only downside to this hotel was the pool needed to be shocked but that's to be expected after a busy weekend.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r209822088-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1526,12 +2429,6 @@
     <t>Better on the inside than outside.  Share a surprisingly small front parking lot with a La Quinta hotel right next door (front desk staff says they co-own the properties).  Not all that attractive on the outside, but the inside is new and fresh looking.  I appreciated the complimentary upgrade to a large room with micro and fridge. The room had a large shower though no tub.  And oddly, no handle nor shelving to put soap, shampoo, or facecloth on.  Pool is somewhat small as is the hot tub.  Staff was pleasant.  Easy on/off access to I-70.MoreShow less</t>
   </si>
   <si>
-    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded June 23, 2014</t>
-  </si>
-  <si>
-    <t>Responded June 23, 2014</t>
-  </si>
-  <si>
     <t>Better on the inside than outside.  Share a surprisingly small front parking lot with a La Quinta hotel right next door (front desk staff says they co-own the properties).  Not all that attractive on the outside, but the inside is new and fresh looking.  I appreciated the complimentary upgrade to a large room with micro and fridge. The room had a large shower though no tub.  And oddly, no handle nor shelving to put soap, shampoo, or facecloth on.  Pool is somewhat small as is the hot tub.  Staff was pleasant.  Easy on/off access to I-70.More</t>
   </si>
   <si>
@@ -1584,6 +2481,36 @@
   </si>
   <si>
     <t>This is a fairly new hotel with easy access from the airport. Nice and friendly desk staff. Hotel was nice and clean and room was very comfortable with plenty of room. As always, the breakfast provided was great. The only concern with this hotel is the small parking area. If needing a hotel with easy access to the airport, consider this one, you will not be dissappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r207765175-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>207765175</t>
+  </si>
+  <si>
+    <t>New and not well known</t>
+  </si>
+  <si>
+    <t>The only good part about getting stuck in Denver on a recent cross country flight was finding this jewel. Just built last year, the front desk night supervisor let my family and in to the breakfast bar to eat a snack when we arrived, tired and hungry. The rooms are beautiful and an easy 20 minute ride from the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>The only good part about getting stuck in Denver on a recent cross country flight was finding this jewel. Just built last year, the front desk night supervisor let my family and in to the breakfast bar to eat a snack when we arrived, tired and hungry. The rooms are beautiful and an easy 20 minute ride from the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r207760360-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>207760360</t>
+  </si>
+  <si>
+    <t>Good for an overnight, but noisy</t>
+  </si>
+  <si>
+    <t>The hotel is a great value for what it is: new hotel with comfy bed, clean bathroom, free breakfast and WiFi.  We got a great deal during the weekend when other hotels in the area were jacked up in price.  Staff is very friendly, and the hotel is right off the highway and close to the airport (with a Starbucks and a 7-11 right across the street - bonus).  I recommend this hotel if you need to crash for the night for a good value....and you are not a light sleeper.  As others have mentioned, the rooms are definitely not soundproof.  We heard kids playing in the elevator (and every elevator ding) and doors slamming at all hours because the walls are very thin.  The AC unit can also be a little testy, and we had some weird issues with the microfridge (the hinge was bent so it was hard to close, and it didn't really get cold) and the TV (it wouldn't let us watch some programs without a 4 digit code - I think it was anything that was above TV PG rating, like stand up comedy specials and primetime dramas),MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is a great value for what it is: new hotel with comfy bed, clean bathroom, free breakfast and WiFi.  We got a great deal during the weekend when other hotels in the area were jacked up in price.  Staff is very friendly, and the hotel is right off the highway and close to the airport (with a Starbucks and a 7-11 right across the street - bonus).  I recommend this hotel if you need to crash for the night for a good value....and you are not a light sleeper.  As others have mentioned, the rooms are definitely not soundproof.  We heard kids playing in the elevator (and every elevator ding) and doors slamming at all hours because the walls are very thin.  The AC unit can also be a little testy, and we had some weird issues with the microfridge (the hinge was bent so it was hard to close, and it didn't really get cold) and the TV (it wouldn't let us watch some programs without a 4 digit code - I think it was anything that was above TV PG rating, like stand up comedy specials and primetime dramas),More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r201591529-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
@@ -1670,27 +2597,63 @@
     <t>Great Hotel to stay if you wanna stay somewhere close to the airport.There are a  lot  of restaurants around for you to choose.The front desk staff was really helpful and amiable.  They always had a smile on their face.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r198061111-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>198061111</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>Nice, new place</t>
+  </si>
+  <si>
+    <t>My family stayed here for 4 nights. The staff here is very friendly and helpful. This is a new hotel and everything was very nice and clean. I think because it is new, there are still some glitches to be worked out. The pool was nice, but cold (even my kids who seem to not care about how cold a pool is, didn't want to get in). The hot tub was decent but could have been hotter, and the jets didn't work one of the nights we were there. Breakfast was your typical Holiday Inn Express breakfast - although I noticed some of the yogurts were expired and there were never any cinnamon rolls available during our stay, and the pancake machine was out of order 2 of the days. The guest laundry room is nice - one washer and one dryer. Rooms were comfortable and quiet. Nice tv channel selection, and the microwave and refrigerator in the room were convenient.  So overall, I think they are trying to make this a nice place, but obviously need to figure out the solution to some of these problems. The location of the hotel was good. Easy to get to and the neighborhood felt safe. I would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>My family stayed here for 4 nights. The staff here is very friendly and helpful. This is a new hotel and everything was very nice and clean. I think because it is new, there are still some glitches to be worked out. The pool was nice, but cold (even my kids who seem to not care about how cold a pool is, didn't want to get in). The hot tub was decent but could have been hotter, and the jets didn't work one of the nights we were there. Breakfast was your typical Holiday Inn Express breakfast - although I noticed some of the yogurts were expired and there were never any cinnamon rolls available during our stay, and the pancake machine was out of order 2 of the days. The guest laundry room is nice - one washer and one dryer. Rooms were comfortable and quiet. Nice tv channel selection, and the microwave and refrigerator in the room were convenient.  So overall, I think they are trying to make this a nice place, but obviously need to figure out the solution to some of these problems. The location of the hotel was good. Easy to get to and the neighborhood felt safe. I would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r196222883-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>196222883</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Very Impressive! Perfect Location between Downtown &amp; DIA!</t>
+  </si>
+  <si>
+    <t>From the moment I arrived I was greeted with the friendliest staff I have ever seen, they were quick &amp; efficient getting me checked in after a long day of visiting clients in the area.  This location was so convenient, with easy access on and off the Interstate.  The décor is so welcoming in the lobby and the rooms are just beautiful, they have everything you need in them and the beds are so comfortable! I had to catch an early flight in the morning, but breakfast was ready and one of the best breakfast bars I've seen in all my travels, I found the drive to the airport to be quick and easy!  I will definitely stay at this hotel next time I'm in the area and would recommend it to others looking for a Clean, Comfortable, Caring Stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2014</t>
+  </si>
+  <si>
+    <t>From the moment I arrived I was greeted with the friendliest staff I have ever seen, they were quick &amp; efficient getting me checked in after a long day of visiting clients in the area.  This location was so convenient, with easy access on and off the Interstate.  The décor is so welcoming in the lobby and the rooms are just beautiful, they have everything you need in them and the beds are so comfortable! I had to catch an early flight in the morning, but breakfast was ready and one of the best breakfast bars I've seen in all my travels, I found the drive to the airport to be quick and easy!  I will definitely stay at this hotel next time I'm in the area and would recommend it to others looking for a Clean, Comfortable, Caring Stay!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d4885715-r196151959-Holiday_Inn_Express_Hotel_Suites_Denver_East_Peoria_Street-Denver_Colorado.html</t>
   </si>
   <si>
     <t>196151959</t>
   </si>
   <si>
-    <t>03/04/2014</t>
-  </si>
-  <si>
     <t>A shiny new gem</t>
   </si>
   <si>
     <t>We stayed overnight on the way to airport from skiing, and the location was really convenient.The hotel is brand new and spotless. The room was well decorated and well appointed with everything you need. Service was great, and we enjoyed breakfast before our flight.MoreShow less</t>
   </si>
   <si>
-    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Denver East-Peoria Street, responded to this reviewResponded March 6, 2014</t>
-  </si>
-  <si>
-    <t>Responded March 6, 2014</t>
-  </si>
-  <si>
     <t>We stayed overnight on the way to airport from skiing, and the location was really convenient.The hotel is brand new and spotless. The room was well decorated and well appointed with everything you need. Service was great, and we enjoyed breakfast before our flight.More</t>
   </si>
   <si>
@@ -1722,9 +2685,6 @@
   </si>
   <si>
     <t>This was perfectly located between the airport and downtown Denver right off the freeway.  The hotel is new and clean and the front desk was friendly and helpful.  I would definitely stay again - BTW I also enjoyed the Mex restaurant next door.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2014</t>
   </si>
   <si>
     <t>This was perfectly located between the airport and downtown Denver right off the freeway.  The hotel is new and clean and the front desk was friendly and helpful.  I would definitely stay again - BTW I also enjoyed the Mex restaurant next door.More</t>
@@ -2331,18 +3291,12 @@
       <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -2390,7 +3344,7 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>71</v>
@@ -2398,16 +3352,12 @@
       <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -2458,17 +3408,19 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
         <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -2477,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -2499,52 +3451,58 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="K6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
         <v>91</v>
-      </c>
-      <c r="X6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -2560,58 +3518,56 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -2627,7 +3583,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2636,47 +3592,49 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
         <v>107</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>108</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -2692,52 +3650,58 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>113</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>114</v>
       </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>115</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>116</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -2753,56 +3717,56 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>119</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>120</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>121</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>122</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
       </c>
       <c r="O10" t="s">
         <v>72</v>
       </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -2818,7 +3782,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2827,25 +3791,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2857,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -2879,7 +3843,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2888,47 +3852,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
         <v>139</v>
-      </c>
-      <c r="X12" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -2944,58 +3910,56 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
         <v>142</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>143</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>144</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>145</v>
-      </c>
-      <c r="L13" t="s">
-        <v>146</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>147</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
       </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
         <v>148</v>
-      </c>
-      <c r="X13" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -3011,58 +3975,58 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
         <v>151</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>152</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>153</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>154</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>155</v>
       </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>156</v>
-      </c>
-      <c r="O14" t="s">
-        <v>72</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
         <v>157</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>158</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -3078,58 +4042,56 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>160</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>161</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>162</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>163</v>
       </c>
-      <c r="L15" t="s">
-        <v>164</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
         <v>166</v>
-      </c>
-      <c r="X15" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -3145,31 +4107,31 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
         <v>169</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>170</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>171</v>
       </c>
-      <c r="K16" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" t="s">
-        <v>173</v>
-      </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
@@ -3184,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -3206,34 +4168,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
         <v>178</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>179</v>
       </c>
-      <c r="J17" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" t="s">
-        <v>181</v>
-      </c>
-      <c r="L17" t="s">
-        <v>182</v>
-      </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3243,19 +4205,19 @@
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -3271,7 +4233,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3280,43 +4242,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
@@ -3332,7 +4300,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3341,22 +4309,22 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="O19" t="s">
         <v>72</v>
@@ -3371,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
@@ -3393,7 +4361,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3402,49 +4370,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
@@ -3460,7 +4422,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3469,47 +4431,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
@@ -3525,7 +4487,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3534,43 +4496,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
@@ -3586,7 +4554,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3595,49 +4563,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
@@ -3653,7 +4615,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3662,25 +4624,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3692,13 +4654,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
@@ -3714,58 +4676,58 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
         <v>242</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>243</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>244</v>
       </c>
-      <c r="K25" t="s">
-        <v>245</v>
-      </c>
-      <c r="L25" t="s">
-        <v>246</v>
-      </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
@@ -3781,56 +4743,58 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
         <v>251</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>252</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>253</v>
       </c>
-      <c r="K26" t="s">
-        <v>254</v>
-      </c>
-      <c r="L26" t="s">
-        <v>255</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>256</v>
-      </c>
       <c r="O26" t="s">
-        <v>72</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="X26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
@@ -3846,58 +4810,52 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
         <v>260</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>261</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
         <v>262</v>
       </c>
-      <c r="K27" t="s">
-        <v>263</v>
-      </c>
-      <c r="L27" t="s">
-        <v>264</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>265</v>
-      </c>
       <c r="O27" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="X27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Y27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
@@ -3913,41 +4871,43 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s">
         <v>269</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>270</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>271</v>
-      </c>
-      <c r="K28" t="s">
-        <v>272</v>
-      </c>
-      <c r="L28" t="s">
-        <v>273</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>265</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3956,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
+        <v>272</v>
+      </c>
+      <c r="X28" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y28" t="s">
         <v>274</v>
-      </c>
-      <c r="X28" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="29">
@@ -3978,56 +4938,52 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" t="s">
         <v>277</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>278</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>279</v>
-      </c>
-      <c r="K29" t="s">
-        <v>280</v>
-      </c>
-      <c r="L29" t="s">
-        <v>281</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
+        <v>280</v>
+      </c>
+      <c r="X29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s">
         <v>282</v>
-      </c>
-      <c r="X29" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="30">
@@ -4043,42 +4999,40 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
         <v>285</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>286</v>
       </c>
-      <c r="J30" t="s">
-        <v>287</v>
-      </c>
-      <c r="K30" t="s">
-        <v>288</v>
-      </c>
-      <c r="L30" t="s">
-        <v>289</v>
-      </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -4088,13 +5042,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Y30" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
@@ -4110,31 +5064,35 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
         <v>292</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>293</v>
-      </c>
-      <c r="J31" t="s">
-        <v>294</v>
-      </c>
-      <c r="K31" t="s">
-        <v>295</v>
-      </c>
-      <c r="L31" t="s">
-        <v>296</v>
-      </c>
       <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
@@ -4145,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="X31" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
@@ -4167,34 +5125,34 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
         <v>300</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>301</v>
       </c>
-      <c r="J32" t="s">
-        <v>302</v>
-      </c>
-      <c r="K32" t="s">
-        <v>303</v>
-      </c>
-      <c r="L32" t="s">
-        <v>304</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s">
-        <v>305</v>
-      </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4206,13 +5164,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="X32" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
@@ -4228,52 +5186,58 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>306</v>
+      </c>
+      <c r="J33" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" t="s">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s">
         <v>309</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>310</v>
-      </c>
-      <c r="J33" t="s">
-        <v>311</v>
-      </c>
-      <c r="K33" t="s">
-        <v>312</v>
-      </c>
-      <c r="L33" t="s">
-        <v>313</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>314</v>
       </c>
       <c r="O33" t="s">
         <v>72</v>
       </c>
-      <c r="P33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="X33" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Y33" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34">
@@ -4289,31 +5253,31 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s">
         <v>318</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>319</v>
-      </c>
-      <c r="J34" t="s">
-        <v>320</v>
-      </c>
-      <c r="K34" t="s">
-        <v>321</v>
-      </c>
-      <c r="L34" t="s">
-        <v>322</v>
-      </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
@@ -4328,13 +5292,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="X34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Y34" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35">
@@ -4350,7 +5314,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4359,43 +5323,49 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J35" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="O35" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="X35" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Y35" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36">
@@ -4411,7 +5381,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4420,43 +5390,47 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="O36" t="s">
-        <v>341</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="X36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Y36" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37">
@@ -4472,7 +5446,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4481,22 +5455,26 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>301</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
@@ -4507,13 +5485,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="X37" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Y37" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38">
@@ -4529,58 +5507,48 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>351</v>
+      </c>
+      <c r="X38" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y38" t="s">
         <v>353</v>
-      </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>354</v>
-      </c>
-      <c r="J38" t="s">
-        <v>355</v>
-      </c>
-      <c r="K38" t="s">
-        <v>356</v>
-      </c>
-      <c r="L38" t="s">
-        <v>357</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>358</v>
-      </c>
-      <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
-      <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="s">
-        <v>359</v>
-      </c>
-      <c r="X38" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="39">
@@ -4596,7 +5564,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4605,49 +5573,47 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="J39" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K39" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
         <v>4</v>
       </c>
-      <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="X39" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="Y39" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40">
@@ -4663,7 +5629,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4672,47 +5638,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="X40" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Y40" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
@@ -4728,7 +5696,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4737,49 +5705,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="X41" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="Y41" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42">
@@ -4795,7 +5757,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4804,47 +5766,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="J42" t="s">
+        <v>378</v>
+      </c>
+      <c r="K42" t="s">
+        <v>379</v>
+      </c>
+      <c r="L42" t="s">
+        <v>380</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
         <v>381</v>
       </c>
-      <c r="K42" t="s">
-        <v>390</v>
-      </c>
-      <c r="L42" t="s">
-        <v>391</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>384</v>
-      </c>
       <c r="O42" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="X42" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Y42" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
@@ -4860,7 +5824,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4869,39 +5833,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>390</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="X43" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Y43" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44">
@@ -4917,58 +5889,52 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>394</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>395</v>
+      </c>
+      <c r="J44" t="s">
+        <v>396</v>
+      </c>
+      <c r="K44" t="s">
+        <v>397</v>
+      </c>
+      <c r="L44" t="s">
         <v>398</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
         <v>399</v>
       </c>
-      <c r="J44" t="s">
-        <v>400</v>
-      </c>
-      <c r="K44" t="s">
-        <v>401</v>
-      </c>
-      <c r="L44" t="s">
-        <v>402</v>
-      </c>
-      <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="s">
-        <v>384</v>
-      </c>
       <c r="O44" t="s">
-        <v>106</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="X44" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Y44" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
@@ -4984,43 +5950,41 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>403</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>404</v>
+      </c>
+      <c r="J45" t="s">
+        <v>405</v>
+      </c>
+      <c r="K45" t="s">
         <v>406</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>407</v>
       </c>
-      <c r="J45" t="s">
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
         <v>408</v>
       </c>
-      <c r="K45" t="s">
-        <v>409</v>
-      </c>
-      <c r="L45" t="s">
-        <v>410</v>
-      </c>
-      <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>384</v>
-      </c>
       <c r="O45" t="s">
-        <v>82</v>
-      </c>
-      <c r="P45" t="n">
+        <v>81</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
         <v>3</v>
       </c>
-      <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>4</v>
@@ -5029,13 +5993,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
+        <v>409</v>
+      </c>
+      <c r="X45" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y45" t="s">
         <v>411</v>
-      </c>
-      <c r="X45" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="46">
@@ -5051,58 +6015,58 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>413</v>
+      </c>
+      <c r="J46" t="s">
         <v>414</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>415</v>
       </c>
-      <c r="J46" t="s">
-        <v>408</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>416</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
         <v>417</v>
       </c>
-      <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s">
-        <v>384</v>
-      </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="X46" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Y46" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47">
@@ -5118,7 +6082,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5127,53 +6091,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J47" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K47" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L47" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="O47" t="s">
         <v>53</v>
       </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="X47" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y47" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48">
@@ -5189,7 +6147,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5198,34 +6156,34 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J48" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K48" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
       <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -5234,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="X48" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="Y48" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49">
@@ -5256,7 +6214,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5265,34 +6223,34 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
-      </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
         <v>5</v>
@@ -5301,13 +6259,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="X49" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="Y49" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
@@ -5323,7 +6281,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5332,29 +6290,29 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J50" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K50" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R50" t="s"/>
       <c r="S50" t="s"/>
@@ -5366,13 +6324,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="X50" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y50" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51">
@@ -5388,7 +6346,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5397,49 +6355,49 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J51" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K51" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L51" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O51" t="s">
-        <v>341</v>
+        <v>72</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="s"/>
-      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
         <v>3</v>
       </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="X51" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y51" t="s">
         <v>457</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="52">
@@ -5455,35 +6413,31 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>458</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
         <v>459</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>460</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>461</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>462</v>
       </c>
-      <c r="L52" t="s">
-        <v>463</v>
-      </c>
       <c r="M52" t="n">
-        <v>4</v>
-      </c>
-      <c r="N52" t="s">
-        <v>433</v>
-      </c>
-      <c r="O52" t="s">
-        <v>72</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
@@ -5494,13 +6448,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
+        <v>463</v>
+      </c>
+      <c r="X52" t="s">
         <v>464</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>465</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="53">
@@ -5516,52 +6470,56 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>466</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
         <v>467</v>
       </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>468</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>469</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>470</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
         <v>471</v>
-      </c>
-      <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s">
-        <v>472</v>
       </c>
       <c r="O53" t="s">
         <v>53</v>
       </c>
-      <c r="P53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
+        <v>472</v>
+      </c>
+      <c r="X53" t="s">
         <v>473</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>474</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="54">
@@ -5577,58 +6535,56 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
+        <v>475</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
         <v>476</v>
       </c>
-      <c r="G54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>477</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>478</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>479</v>
       </c>
-      <c r="L54" t="s">
-        <v>480</v>
-      </c>
       <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>471</v>
+      </c>
+      <c r="O54" t="s">
+        <v>72</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
       <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
+        <v>480</v>
+      </c>
+      <c r="X54" t="s">
         <v>481</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>482</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="55">
@@ -5644,59 +6600,49 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>483</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
         <v>484</v>
       </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>485</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>486</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>487</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>471</v>
+      </c>
+      <c r="O55" t="s">
+        <v>81</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
         <v>488</v>
       </c>
-      <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="X55" t="s">
         <v>489</v>
-      </c>
-      <c r="O55" t="s">
-        <v>72</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
-      <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="s">
-        <v>481</v>
-      </c>
-      <c r="X55" t="s">
-        <v>482</v>
       </c>
       <c r="Y55" t="s">
         <v>490</v>
@@ -5736,41 +6682,31 @@
         <v>495</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="O56" t="s">
-        <v>106</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>4</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="X56" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Y56" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57">
@@ -5786,7 +6722,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5795,22 +6731,22 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J57" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K57" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L57" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O57" t="s">
         <v>53</v>
@@ -5825,13 +6761,13 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="X57" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Y57" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58">
@@ -5847,7 +6783,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5856,53 +6792,49 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J58" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K58" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L58" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O58" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="X58" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Y58" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59">
@@ -5918,7 +6850,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5927,50 +6859,46 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J59" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K59" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L59" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O59" t="s">
         <v>72</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
         <v>1</v>
       </c>
-      <c r="Q59" t="n">
-        <v>2</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="X59" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="Y59" t="s">
         <v>524</v>
@@ -6013,27 +6941,17 @@
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O60" t="s">
-        <v>72</v>
-      </c>
-      <c r="P60" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>2</v>
-      </c>
-      <c r="R60" t="n">
-        <v>3</v>
-      </c>
-      <c r="S60" t="n">
-        <v>4</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>3</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
@@ -6084,27 +7002,17 @@
         <v>5</v>
       </c>
       <c r="N61" t="s">
+        <v>522</v>
+      </c>
+      <c r="O61" t="s">
         <v>538</v>
       </c>
-      <c r="O61" t="s">
-        <v>72</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
@@ -6154,28 +7062,14 @@
       <c r="M62" t="n">
         <v>5</v>
       </c>
-      <c r="N62" t="s">
-        <v>538</v>
-      </c>
-      <c r="O62" t="s">
-        <v>53</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
@@ -6226,27 +7120,17 @@
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="O63" t="s">
-        <v>72</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
@@ -6297,21 +7181,17 @@
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
       </c>
       <c r="Q64" t="s"/>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
         <v>5</v>
@@ -6320,13 +7200,2910 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="X64" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="Y64" t="s">
-        <v>561</v>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>563</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>564</v>
+      </c>
+      <c r="J65" t="s">
+        <v>565</v>
+      </c>
+      <c r="K65" t="s">
+        <v>566</v>
+      </c>
+      <c r="L65" t="s">
+        <v>567</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>568</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>569</v>
+      </c>
+      <c r="X65" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>572</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>573</v>
+      </c>
+      <c r="J66" t="s">
+        <v>574</v>
+      </c>
+      <c r="K66" t="s">
+        <v>575</v>
+      </c>
+      <c r="L66" t="s">
+        <v>576</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>577</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>578</v>
+      </c>
+      <c r="X66" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>581</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>582</v>
+      </c>
+      <c r="J67" t="s">
+        <v>583</v>
+      </c>
+      <c r="K67" t="s">
+        <v>584</v>
+      </c>
+      <c r="L67" t="s">
+        <v>585</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>568</v>
+      </c>
+      <c r="O67" t="s">
+        <v>81</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>586</v>
+      </c>
+      <c r="X67" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>589</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>590</v>
+      </c>
+      <c r="J68" t="s">
+        <v>591</v>
+      </c>
+      <c r="K68" t="s">
+        <v>592</v>
+      </c>
+      <c r="L68" t="s">
+        <v>593</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>594</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>595</v>
+      </c>
+      <c r="X68" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>598</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>599</v>
+      </c>
+      <c r="J69" t="s">
+        <v>600</v>
+      </c>
+      <c r="K69" t="s">
+        <v>601</v>
+      </c>
+      <c r="L69" t="s">
+        <v>602</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>594</v>
+      </c>
+      <c r="O69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>603</v>
+      </c>
+      <c r="X69" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>606</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>607</v>
+      </c>
+      <c r="J70" t="s">
+        <v>608</v>
+      </c>
+      <c r="K70" t="s">
+        <v>609</v>
+      </c>
+      <c r="L70" t="s">
+        <v>610</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>611</v>
+      </c>
+      <c r="O70" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>612</v>
+      </c>
+      <c r="X70" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>615</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>616</v>
+      </c>
+      <c r="J71" t="s">
+        <v>608</v>
+      </c>
+      <c r="K71" t="s">
+        <v>617</v>
+      </c>
+      <c r="L71" t="s">
+        <v>618</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>611</v>
+      </c>
+      <c r="O71" t="s">
+        <v>155</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>612</v>
+      </c>
+      <c r="X71" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>620</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>621</v>
+      </c>
+      <c r="J72" t="s">
+        <v>608</v>
+      </c>
+      <c r="K72" t="s">
+        <v>622</v>
+      </c>
+      <c r="L72" t="s">
+        <v>623</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>612</v>
+      </c>
+      <c r="X72" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>625</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>626</v>
+      </c>
+      <c r="J73" t="s">
+        <v>627</v>
+      </c>
+      <c r="K73" t="s">
+        <v>628</v>
+      </c>
+      <c r="L73" t="s">
+        <v>629</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>611</v>
+      </c>
+      <c r="O73" t="s">
+        <v>72</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>630</v>
+      </c>
+      <c r="X73" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>633</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>634</v>
+      </c>
+      <c r="J74" t="s">
+        <v>635</v>
+      </c>
+      <c r="K74" t="s">
+        <v>636</v>
+      </c>
+      <c r="L74" t="s">
+        <v>637</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>638</v>
+      </c>
+      <c r="X74" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>641</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>642</v>
+      </c>
+      <c r="J75" t="s">
+        <v>635</v>
+      </c>
+      <c r="K75" t="s">
+        <v>643</v>
+      </c>
+      <c r="L75" t="s">
+        <v>644</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>611</v>
+      </c>
+      <c r="O75" t="s">
+        <v>155</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>638</v>
+      </c>
+      <c r="X75" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>646</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>647</v>
+      </c>
+      <c r="J76" t="s">
+        <v>648</v>
+      </c>
+      <c r="K76" t="s">
+        <v>649</v>
+      </c>
+      <c r="L76" t="s">
+        <v>650</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>611</v>
+      </c>
+      <c r="O76" t="s">
+        <v>72</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>651</v>
+      </c>
+      <c r="X76" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>654</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>655</v>
+      </c>
+      <c r="J77" t="s">
+        <v>648</v>
+      </c>
+      <c r="K77" t="s">
+        <v>656</v>
+      </c>
+      <c r="L77" t="s">
+        <v>657</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>611</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>651</v>
+      </c>
+      <c r="X77" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>659</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>660</v>
+      </c>
+      <c r="J78" t="s">
+        <v>661</v>
+      </c>
+      <c r="K78" t="s">
+        <v>662</v>
+      </c>
+      <c r="L78" t="s">
+        <v>663</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>664</v>
+      </c>
+      <c r="O78" t="s">
+        <v>81</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>665</v>
+      </c>
+      <c r="X78" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>668</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>669</v>
+      </c>
+      <c r="J79" t="s">
+        <v>670</v>
+      </c>
+      <c r="K79" t="s">
+        <v>671</v>
+      </c>
+      <c r="L79" t="s">
+        <v>672</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>673</v>
+      </c>
+      <c r="O79" t="s">
+        <v>72</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>674</v>
+      </c>
+      <c r="X79" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>677</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>678</v>
+      </c>
+      <c r="J80" t="s">
+        <v>679</v>
+      </c>
+      <c r="K80" t="s">
+        <v>680</v>
+      </c>
+      <c r="L80" t="s">
+        <v>681</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>673</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>682</v>
+      </c>
+      <c r="X80" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>685</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>686</v>
+      </c>
+      <c r="J81" t="s">
+        <v>687</v>
+      </c>
+      <c r="K81" t="s">
+        <v>688</v>
+      </c>
+      <c r="L81" t="s">
+        <v>689</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>690</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>682</v>
+      </c>
+      <c r="X81" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>692</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>693</v>
+      </c>
+      <c r="J82" t="s">
+        <v>694</v>
+      </c>
+      <c r="K82" t="s">
+        <v>695</v>
+      </c>
+      <c r="L82" t="s">
+        <v>696</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>697</v>
+      </c>
+      <c r="O82" t="s">
+        <v>72</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>682</v>
+      </c>
+      <c r="X82" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>699</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>700</v>
+      </c>
+      <c r="J83" t="s">
+        <v>701</v>
+      </c>
+      <c r="K83" t="s">
+        <v>702</v>
+      </c>
+      <c r="L83" t="s">
+        <v>703</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>704</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>705</v>
+      </c>
+      <c r="X83" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>708</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>709</v>
+      </c>
+      <c r="J84" t="s">
+        <v>710</v>
+      </c>
+      <c r="K84" t="s">
+        <v>711</v>
+      </c>
+      <c r="L84" t="s">
+        <v>712</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>704</v>
+      </c>
+      <c r="O84" t="s">
+        <v>538</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>713</v>
+      </c>
+      <c r="X84" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>716</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>717</v>
+      </c>
+      <c r="J85" t="s">
+        <v>718</v>
+      </c>
+      <c r="K85" t="s">
+        <v>719</v>
+      </c>
+      <c r="L85" t="s">
+        <v>720</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>704</v>
+      </c>
+      <c r="O85" t="s">
+        <v>72</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>721</v>
+      </c>
+      <c r="X85" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>724</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>725</v>
+      </c>
+      <c r="J86" t="s">
+        <v>726</v>
+      </c>
+      <c r="K86" t="s">
+        <v>727</v>
+      </c>
+      <c r="L86" t="s">
+        <v>728</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>690</v>
+      </c>
+      <c r="O86" t="s">
+        <v>538</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>729</v>
+      </c>
+      <c r="X86" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>732</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>733</v>
+      </c>
+      <c r="J87" t="s">
+        <v>734</v>
+      </c>
+      <c r="K87" t="s">
+        <v>735</v>
+      </c>
+      <c r="L87" t="s">
+        <v>736</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>690</v>
+      </c>
+      <c r="O87" t="s">
+        <v>81</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>737</v>
+      </c>
+      <c r="X87" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>740</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>741</v>
+      </c>
+      <c r="J88" t="s">
+        <v>742</v>
+      </c>
+      <c r="K88" t="s">
+        <v>743</v>
+      </c>
+      <c r="L88" t="s">
+        <v>744</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>745</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>737</v>
+      </c>
+      <c r="X88" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>747</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>748</v>
+      </c>
+      <c r="J89" t="s">
+        <v>749</v>
+      </c>
+      <c r="K89" t="s">
+        <v>750</v>
+      </c>
+      <c r="L89" t="s">
+        <v>751</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>745</v>
+      </c>
+      <c r="O89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>737</v>
+      </c>
+      <c r="X89" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>753</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>754</v>
+      </c>
+      <c r="J90" t="s">
+        <v>755</v>
+      </c>
+      <c r="K90" t="s">
+        <v>756</v>
+      </c>
+      <c r="L90" t="s">
+        <v>757</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>745</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>758</v>
+      </c>
+      <c r="X90" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>761</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>762</v>
+      </c>
+      <c r="J91" t="s">
+        <v>763</v>
+      </c>
+      <c r="K91" t="s">
+        <v>764</v>
+      </c>
+      <c r="L91" t="s">
+        <v>765</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>766</v>
+      </c>
+      <c r="X91" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>769</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>770</v>
+      </c>
+      <c r="J92" t="s">
+        <v>771</v>
+      </c>
+      <c r="K92" t="s">
+        <v>772</v>
+      </c>
+      <c r="L92" t="s">
+        <v>773</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>774</v>
+      </c>
+      <c r="O92" t="s">
+        <v>81</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>766</v>
+      </c>
+      <c r="X92" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>776</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>777</v>
+      </c>
+      <c r="J93" t="s">
+        <v>778</v>
+      </c>
+      <c r="K93" t="s">
+        <v>779</v>
+      </c>
+      <c r="L93" t="s">
+        <v>780</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>774</v>
+      </c>
+      <c r="O93" t="s">
+        <v>72</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>781</v>
+      </c>
+      <c r="X93" t="s">
+        <v>782</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>784</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>785</v>
+      </c>
+      <c r="J94" t="s">
+        <v>786</v>
+      </c>
+      <c r="K94" t="s">
+        <v>787</v>
+      </c>
+      <c r="L94" t="s">
+        <v>788</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>774</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>789</v>
+      </c>
+      <c r="X94" t="s">
+        <v>790</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>792</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>793</v>
+      </c>
+      <c r="J95" t="s">
+        <v>794</v>
+      </c>
+      <c r="K95" t="s">
+        <v>795</v>
+      </c>
+      <c r="L95" t="s">
+        <v>796</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>774</v>
+      </c>
+      <c r="O95" t="s">
+        <v>155</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>789</v>
+      </c>
+      <c r="X95" t="s">
+        <v>790</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>798</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>799</v>
+      </c>
+      <c r="J96" t="s">
+        <v>800</v>
+      </c>
+      <c r="K96" t="s">
+        <v>801</v>
+      </c>
+      <c r="L96" t="s">
+        <v>802</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>803</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>804</v>
+      </c>
+      <c r="X96" t="s">
+        <v>805</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>807</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>808</v>
+      </c>
+      <c r="J97" t="s">
+        <v>809</v>
+      </c>
+      <c r="K97" t="s">
+        <v>810</v>
+      </c>
+      <c r="L97" t="s">
+        <v>811</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>803</v>
+      </c>
+      <c r="O97" t="s">
+        <v>72</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>812</v>
+      </c>
+      <c r="X97" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>815</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>816</v>
+      </c>
+      <c r="J98" t="s">
+        <v>809</v>
+      </c>
+      <c r="K98" t="s">
+        <v>817</v>
+      </c>
+      <c r="L98" t="s">
+        <v>818</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>803</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>812</v>
+      </c>
+      <c r="X98" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>820</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>821</v>
+      </c>
+      <c r="J99" t="s">
+        <v>809</v>
+      </c>
+      <c r="K99" t="s">
+        <v>822</v>
+      </c>
+      <c r="L99" t="s">
+        <v>823</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>803</v>
+      </c>
+      <c r="O99" t="s">
+        <v>72</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>812</v>
+      </c>
+      <c r="X99" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>825</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>826</v>
+      </c>
+      <c r="J100" t="s">
+        <v>827</v>
+      </c>
+      <c r="K100" t="s">
+        <v>828</v>
+      </c>
+      <c r="L100" t="s">
+        <v>829</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>830</v>
+      </c>
+      <c r="O100" t="s">
+        <v>81</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>831</v>
+      </c>
+      <c r="X100" t="s">
+        <v>832</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>834</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>835</v>
+      </c>
+      <c r="J101" t="s">
+        <v>836</v>
+      </c>
+      <c r="K101" t="s">
+        <v>837</v>
+      </c>
+      <c r="L101" t="s">
+        <v>838</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>830</v>
+      </c>
+      <c r="O101" t="s">
+        <v>81</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>2</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>839</v>
+      </c>
+      <c r="X101" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>842</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>843</v>
+      </c>
+      <c r="J102" t="s">
+        <v>844</v>
+      </c>
+      <c r="K102" t="s">
+        <v>845</v>
+      </c>
+      <c r="L102" t="s">
+        <v>846</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>847</v>
+      </c>
+      <c r="O102" t="s">
+        <v>81</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>848</v>
+      </c>
+      <c r="X102" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>851</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>852</v>
+      </c>
+      <c r="J103" t="s">
+        <v>853</v>
+      </c>
+      <c r="K103" t="s">
+        <v>854</v>
+      </c>
+      <c r="L103" t="s">
+        <v>855</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>856</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>848</v>
+      </c>
+      <c r="X103" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>858</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>859</v>
+      </c>
+      <c r="J104" t="s">
+        <v>860</v>
+      </c>
+      <c r="K104" t="s">
+        <v>861</v>
+      </c>
+      <c r="L104" t="s">
+        <v>862</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>856</v>
+      </c>
+      <c r="O104" t="s">
+        <v>72</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>863</v>
+      </c>
+      <c r="X104" t="s">
+        <v>864</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>866</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>867</v>
+      </c>
+      <c r="J105" t="s">
+        <v>860</v>
+      </c>
+      <c r="K105" t="s">
+        <v>868</v>
+      </c>
+      <c r="L105" t="s">
+        <v>869</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>847</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>863</v>
+      </c>
+      <c r="X105" t="s">
+        <v>864</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>871</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>872</v>
+      </c>
+      <c r="J106" t="s">
+        <v>860</v>
+      </c>
+      <c r="K106" t="s">
+        <v>873</v>
+      </c>
+      <c r="L106" t="s">
+        <v>874</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>847</v>
+      </c>
+      <c r="O106" t="s">
+        <v>81</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>863</v>
+      </c>
+      <c r="X106" t="s">
+        <v>864</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>62906</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>876</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>877</v>
+      </c>
+      <c r="J107" t="s">
+        <v>878</v>
+      </c>
+      <c r="K107" t="s">
+        <v>879</v>
+      </c>
+      <c r="L107" t="s">
+        <v>880</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>856</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>863</v>
+      </c>
+      <c r="X107" t="s">
+        <v>864</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>
